--- a/data/raw/iran/covid_iran.xlsx
+++ b/data/raw/iran/covid_iran.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy Hultgren\Documents\ARE\GPL\coronavirus_sprint\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy Hultgren\Documents\ARE\GPL\coronavirus_sprint\AAA_repo\gpl-covid\data\raw\iran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30F82B8-FDB5-4F81-A944-9CB172EBD741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA3F7E-FBD9-4275-BD25-7758DAFEF5A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="1068" windowWidth="21972" windowHeight="11010" activeTab="2" xr2:uid="{B9F8E7D9-CAF8-492B-9668-8FBFA647817F}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{B9F8E7D9-CAF8-492B-9668-8FBFA647817F}"/>
   </bookViews>
   <sheets>
     <sheet name="200314_cases_raw" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="150">
   <si>
     <t>Date</t>
   </si>
@@ -220,36 +220,9 @@
     <t>Sources</t>
   </si>
   <si>
-    <t>[82]</t>
-  </si>
-  <si>
-    <t>[64]</t>
-  </si>
-  <si>
-    <t>[83]</t>
-  </si>
-  <si>
-    <t>[65]</t>
-  </si>
-  <si>
-    <t>[37]</t>
-  </si>
-  <si>
-    <t>[67]</t>
-  </si>
-  <si>
-    <t>[68]</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>[39]</t>
-  </si>
-  <si>
-    <t>[69]</t>
-  </si>
-  <si>
     <t>new_deaths_national</t>
   </si>
   <si>
@@ -304,9 +277,6 @@
     <t>Iran closed its schools and universities until early April - and limited travel between cities - as its death toll rose to 107.</t>
   </si>
   <si>
-    <t>Iran’s Revolutionary Guards are to clear streets, shops and public places in the country within the next 24 hours, in a dramatic escalation of efforts to combat the spread of coronavirus.  The near-curfew follows growing exasperation among MPs that calls for Iranian citizens to stay at home had been widely ignored, as people continued to travel before the Nowruz new year holidays. Shops and offices have largely remained open.</t>
-  </si>
-  <si>
     <t>https://www.nytimes.com/2020/03/03/world/middleeast/coronavirus-iran.html, https://www.cnbc.com/2020/03/01/reuters-america-update-3-irans-coronavirus-death-toll-jumps-to-54-with-978-infected.html</t>
   </si>
   <si>
@@ -325,45 +295,6 @@
     <t xml:space="preserve">The health minister, Saeed Namaki, on Sunday announced a plan to dispatch a force of 300,000 plainclothes Basij militiamen that would go house to house to screen residents and disinfect their homes.  Iranian doctors and politicians immediately criticized the plan, saying that untrained militiamen were more likely to spread the virus than to contain it.  The latest plan announced on Thursday did not mention door-to-door screening.   </t>
   </si>
   <si>
-    <t>[81][96]</t>
-  </si>
-  <si>
-    <t>[84]</t>
-  </si>
-  <si>
-    <t>[70][85]</t>
-  </si>
-  <si>
-    <t>[71][86]</t>
-  </si>
-  <si>
-    <t>[72][87]</t>
-  </si>
-  <si>
-    <t>[73][88]</t>
-  </si>
-  <si>
-    <t>[74][89]</t>
-  </si>
-  <si>
-    <t>[75][90]</t>
-  </si>
-  <si>
-    <t>[76][91]</t>
-  </si>
-  <si>
-    <t>[77][92]</t>
-  </si>
-  <si>
-    <t>[78][93]</t>
-  </si>
-  <si>
-    <t>[79][94]</t>
-  </si>
-  <si>
-    <t>[80][95]</t>
-  </si>
-  <si>
     <t>school_closure</t>
   </si>
   <si>
@@ -508,13 +439,109 @@
     <t>https://www.dailymail.co.uk/news/article-8082443/ANOTHER-senior-Iranian-official-dies-coronavirus.html  (Accessed 3/14/20)</t>
   </si>
   <si>
-    <t>https://www.theguardian.com/world/2020/mar/13/revolutionary-guards-enforce-coronavirus-controls-iran  (Accessed 3/14/20)</t>
-  </si>
-  <si>
     <t>home_isolation</t>
   </si>
   <si>
     <t>testing_regime</t>
+  </si>
+  <si>
+    <t>[116]</t>
+  </si>
+  <si>
+    <t>[117]</t>
+  </si>
+  <si>
+    <t>[88]</t>
+  </si>
+  <si>
+    <t>[118]</t>
+  </si>
+  <si>
+    <t>[90]</t>
+  </si>
+  <si>
+    <t>[41]</t>
+  </si>
+  <si>
+    <t>[92]</t>
+  </si>
+  <si>
+    <t>[93]</t>
+  </si>
+  <si>
+    <t>[43]</t>
+  </si>
+  <si>
+    <t>[94]</t>
+  </si>
+  <si>
+    <t>[95][119]</t>
+  </si>
+  <si>
+    <t>[96][120]</t>
+  </si>
+  <si>
+    <t>[97][121]</t>
+  </si>
+  <si>
+    <t>[98][122]</t>
+  </si>
+  <si>
+    <t>[99][123]</t>
+  </si>
+  <si>
+    <t>[100][124]</t>
+  </si>
+  <si>
+    <t>[101][125]</t>
+  </si>
+  <si>
+    <t>[102][126]</t>
+  </si>
+  <si>
+    <t>[103][127]</t>
+  </si>
+  <si>
+    <t>[104][128]</t>
+  </si>
+  <si>
+    <t>[105][129]</t>
+  </si>
+  <si>
+    <t>[106][130]</t>
+  </si>
+  <si>
+    <t>[107][131]</t>
+  </si>
+  <si>
+    <t>[132]</t>
+  </si>
+  <si>
+    <t>[133]</t>
+  </si>
+  <si>
+    <t>[134]</t>
+  </si>
+  <si>
+    <t>[135]</t>
+  </si>
+  <si>
+    <t>[136]</t>
+  </si>
+  <si>
+    <t>religious_closure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only on 17 March—by which time Iran had tallied 16,169 cases and 988 deaths—did the government shutter Qom’s shrines, which beckon pilgrims from across Iran and abroad. </t>
+  </si>
+  <si>
+    <t>https://www.sciencemag.org/news/2020/03/iran-confronts-coronavirus-amid-battle-between-science-and-conspiracy-theories (Accessed 3/30/2020)</t>
+  </si>
+  <si>
+    <t>The Guardian: Iran’s Revolutionary Guards are to clear streets, shops and public places in the country within the next 24 hours, in a dramatic escalation of efforts to combat the spread of coronavirus.  The near-curfew follows growing exasperation among MPs that calls for Iranian citizens to stay at home had been widely ignored, as people continued to travel before the Nowruz new year holidays. Shops and offices have largely remained open.           NYT: By Monday, Mr. Rouhani appeared to have dissuaded the military from imposing strict rules. But local authorities defied him, independently closing provinces and several cities.</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/world/2020/mar/13/revolutionary-guards-enforce-coronavirus-controls-iran  (Accessed 3/14/20)     https://www.nytimes.com/2020/03/17/world/middleeast/coronavirus-iran-rouhani.html (Accessed 3/30/20)</t>
   </si>
 </sst>
 </file>
@@ -589,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -607,9 +634,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -617,13 +641,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -980,69 +1002,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854914B6-C51A-470E-BB7C-061A50D70C35}">
   <dimension ref="A1:AK42"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14" t="s">
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14" t="s">
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14" t="s">
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="14"/>
+      <c r="AJ1" s="13"/>
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1156,39 +1178,39 @@
       <c r="A3" s="3">
         <v>43880</v>
       </c>
-      <c r="B3" s="7">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
       <c r="AG3" s="4">
         <v>2</v>
       </c>
@@ -1201,100 +1223,100 @@
       <c r="AJ3" s="4">
         <v>2</v>
       </c>
-      <c r="AK3" s="7"/>
+      <c r="AK3" s="11"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>43881</v>
       </c>
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11">
         <v>1</v>
       </c>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
       <c r="AG4" s="4">
         <v>3</v>
       </c>
       <c r="AH4" s="4">
         <v>5</v>
       </c>
-      <c r="AI4" s="7"/>
+      <c r="AI4" s="11"/>
       <c r="AJ4" s="4">
         <v>2</v>
       </c>
-      <c r="AK4" s="7"/>
+      <c r="AK4" s="11"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>43882</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="11">
         <v>7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="11">
         <v>4</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7">
-        <v>2</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11">
+        <v>2</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
       <c r="AG5" s="4">
         <v>13</v>
       </c>
@@ -1307,47 +1329,47 @@
       <c r="AJ5" s="4">
         <v>4</v>
       </c>
-      <c r="AK5" s="7"/>
+      <c r="AK5" s="11"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>43883</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="11">
         <v>8</v>
       </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
       <c r="AG6" s="4">
         <v>10</v>
       </c>
@@ -1360,53 +1382,53 @@
       <c r="AJ6" s="4">
         <v>6</v>
       </c>
-      <c r="AK6" s="7"/>
+      <c r="AK6" s="11"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>43884</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="11">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="11">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="11">
         <v>1</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7">
-        <v>2</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11">
+        <v>2</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11">
         <v>1</v>
       </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
       <c r="AG7" s="4">
         <v>15</v>
       </c>
@@ -1420,56 +1442,56 @@
         <v>8</v>
       </c>
       <c r="AK7" s="6" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>43885</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="11">
         <v>8</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="11">
         <v>3</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7">
-        <v>2</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7">
-        <v>2</v>
-      </c>
-      <c r="V8" s="7">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11">
+        <v>2</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11">
+        <v>2</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11">
+        <v>2</v>
+      </c>
+      <c r="V8" s="11">
         <v>1</v>
       </c>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
       <c r="AG8" s="4">
         <v>18</v>
       </c>
@@ -1483,60 +1505,60 @@
         <v>12</v>
       </c>
       <c r="AK8" s="6" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>43886</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="11">
         <v>16</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="11">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7">
+      <c r="D9" s="11">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
         <v>1</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7">
-        <v>2</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11">
+        <v>2</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11">
         <v>1</v>
       </c>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
       <c r="AG9" s="4">
         <v>34</v>
       </c>
@@ -1550,70 +1572,70 @@
         <v>15</v>
       </c>
       <c r="AK9" s="6" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>43887</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="11">
         <v>15</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
         <v>1</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7">
-        <v>2</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
+        <v>2</v>
+      </c>
+      <c r="K10" s="11">
         <v>1</v>
       </c>
-      <c r="L10" s="7">
-        <v>2</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7">
+      <c r="L10" s="11">
+        <v>2</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11">
         <v>1</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7">
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11">
         <v>1</v>
       </c>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7">
+      <c r="V10" s="11"/>
+      <c r="W10" s="11">
         <v>3</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="11">
         <v>1</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="11">
         <v>1</v>
       </c>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
       <c r="AG10" s="4">
         <v>44</v>
       </c>
@@ -1627,76 +1649,76 @@
         <v>19</v>
       </c>
       <c r="AK10" s="6" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>43888</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="11">
         <v>7</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="11">
         <v>38</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="11">
         <v>7</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="11">
         <v>3</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="11">
         <v>3</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11">
         <v>8</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7">
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11">
         <v>23</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="11">
         <v>5</v>
       </c>
-      <c r="Q11" s="7">
-        <v>2</v>
-      </c>
-      <c r="R11" s="7">
+      <c r="Q11" s="11">
+        <v>2</v>
+      </c>
+      <c r="R11" s="11">
         <v>1</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="11">
         <v>1</v>
       </c>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7">
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11">
         <v>1</v>
       </c>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="7">
+      <c r="W11" s="11"/>
+      <c r="X11" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="11">
         <v>3</v>
       </c>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7">
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11">
         <v>1</v>
       </c>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7">
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11">
         <v>1</v>
       </c>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
       <c r="AG11" s="4">
         <v>106</v>
       </c>
@@ -1710,70 +1732,70 @@
         <v>26</v>
       </c>
       <c r="AK11" s="6" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>43889</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="11">
         <v>16</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="11">
         <v>64</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="11">
         <v>9</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="11">
         <v>3</v>
       </c>
-      <c r="F12" s="7">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="F12" s="11">
+        <v>2</v>
+      </c>
+      <c r="G12" s="11">
+        <v>2</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2</v>
+      </c>
+      <c r="I12" s="11">
         <v>10</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7">
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11">
         <v>25</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="11">
         <v>1</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="11">
         <v>4</v>
       </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7">
-        <v>2</v>
-      </c>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7">
+      <c r="R12" s="11"/>
+      <c r="S12" s="11">
+        <v>2</v>
+      </c>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11">
         <v>3</v>
       </c>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
       <c r="AG12" s="4">
         <v>143</v>
       </c>
@@ -1787,82 +1809,82 @@
         <v>34</v>
       </c>
       <c r="AK12" s="6" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>43890</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="11">
         <v>21</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="11">
         <v>52</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="11">
         <v>12</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="11">
         <v>8</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="11">
         <v>4</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="11">
         <v>22</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="11">
         <v>6</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="11">
         <v>12</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="11">
         <v>8</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7">
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11">
         <v>17</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="11">
         <v>3</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="11">
         <v>6</v>
       </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7">
+      <c r="R13" s="11"/>
+      <c r="S13" s="11">
         <v>5</v>
       </c>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7">
+      <c r="T13" s="11"/>
+      <c r="U13" s="11">
         <v>18</v>
       </c>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7">
+      <c r="V13" s="11"/>
+      <c r="W13" s="11">
         <v>4</v>
       </c>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7">
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11">
         <v>1</v>
       </c>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7">
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11">
         <v>1</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AC13" s="11">
         <v>4</v>
       </c>
-      <c r="AD13" s="7">
+      <c r="AD13" s="11">
         <v>1</v>
       </c>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
       <c r="AG13" s="4">
         <v>205</v>
       </c>
@@ -1876,82 +1898,82 @@
         <v>43</v>
       </c>
       <c r="AK13" s="6" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>43891</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="11">
         <v>30</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="11">
         <v>170</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="11">
         <v>11</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="11">
         <v>31</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="11">
         <v>3</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11">
         <v>13</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="11">
         <v>8</v>
       </c>
-      <c r="K14" s="7">
-        <v>2</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7">
+      <c r="K14" s="11">
+        <v>2</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11">
         <v>28</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7">
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11">
         <v>44</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="11">
         <v>3</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="11">
         <v>9</v>
       </c>
-      <c r="X14" s="7">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="7">
+      <c r="X14" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="11">
         <v>8</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="Z14" s="11">
         <v>1</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AA14" s="11">
         <v>17</v>
       </c>
-      <c r="AB14" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7">
-        <v>2</v>
-      </c>
-      <c r="AE14" s="7">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="7"/>
+      <c r="AB14" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="11"/>
       <c r="AG14" s="4">
         <v>385</v>
       </c>
@@ -1965,46 +1987,46 @@
         <v>54</v>
       </c>
       <c r="AK14" s="6" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>43892</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
+      <c r="B15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
       <c r="AG15" s="4">
         <v>523</v>
       </c>
@@ -2018,46 +2040,46 @@
         <v>54</v>
       </c>
       <c r="AK15" s="6" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>43893</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
+      <c r="B16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
       <c r="AG16" s="4">
         <v>835</v>
       </c>
@@ -2071,86 +2093,86 @@
         <v>77</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>43894</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="11">
         <v>101</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="11">
         <v>253</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="11">
         <v>9</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="11">
         <v>19</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="11">
         <v>8</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="11">
         <v>9</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="11">
         <v>25</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11">
         <v>14</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7">
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11">
         <v>1</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7">
+      <c r="N17" s="11"/>
+      <c r="O17" s="11">
         <v>35</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7">
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11">
         <v>9</v>
       </c>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7">
+      <c r="R17" s="11"/>
+      <c r="S17" s="11">
         <v>4</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="11">
         <v>6</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="11">
         <v>8</v>
       </c>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7">
+      <c r="V17" s="11"/>
+      <c r="W17" s="11">
         <v>27</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="11">
         <v>15</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y17" s="11">
         <v>5</v>
       </c>
-      <c r="Z17" s="7">
+      <c r="Z17" s="11">
         <v>7</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="AA17" s="11">
         <v>8</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AB17" s="11">
         <v>8</v>
       </c>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7">
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11">
         <v>14</v>
       </c>
-      <c r="AF17" s="7">
+      <c r="AF17" s="11">
         <v>1</v>
       </c>
       <c r="AG17" s="4">
@@ -2166,94 +2188,94 @@
         <v>92</v>
       </c>
       <c r="AK17" s="5" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>43895</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="11">
         <v>32</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="11">
         <v>56</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="11">
         <v>50</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="11">
         <v>61</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="11">
         <v>22</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="11">
         <v>4</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="11">
         <v>31</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="11">
         <v>118</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="11">
         <v>19</v>
       </c>
-      <c r="K18" s="7">
-        <v>2</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7">
+      <c r="K18" s="11">
+        <v>2</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11">
         <v>8</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="11">
         <v>3</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="11">
         <v>80</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="11">
         <v>17</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="11">
         <v>10</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="11">
         <v>5</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="11">
         <v>6</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="11">
         <v>7</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="11">
         <v>31</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="11">
         <v>6</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="11">
         <v>1</v>
       </c>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7">
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11">
         <v>11</v>
       </c>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7">
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11">
         <v>53</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="11">
         <v>5</v>
       </c>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7">
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11">
         <v>9</v>
       </c>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7">
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11">
         <v>2</v>
       </c>
       <c r="AG18" s="4">
@@ -2269,100 +2291,100 @@
         <v>107</v>
       </c>
       <c r="AK18" s="5" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
         <v>43896</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="11">
         <v>137</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="11">
         <v>61</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="11">
         <v>180</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="11">
         <v>129</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="11">
         <v>54</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="11">
         <v>67</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="11">
         <v>65</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="11">
         <v>150</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="11">
         <v>13</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="11">
         <v>6</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="11">
         <v>4</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="11">
         <v>5</v>
       </c>
-      <c r="N19" s="7">
-        <v>2</v>
-      </c>
-      <c r="O19" s="7">
+      <c r="N19" s="11">
+        <v>2</v>
+      </c>
+      <c r="O19" s="11">
         <v>91</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="11">
         <v>11</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="11">
         <v>10</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="11">
         <v>1</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="11">
         <v>24</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="11">
         <v>35</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="11">
         <v>48</v>
       </c>
-      <c r="V19" s="7">
+      <c r="V19" s="11">
         <v>7</v>
       </c>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7">
+      <c r="W19" s="11"/>
+      <c r="X19" s="11">
         <v>5</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="Y19" s="11">
         <v>50</v>
       </c>
-      <c r="Z19" s="7">
-        <v>2</v>
-      </c>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="7">
+      <c r="Z19" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="11">
         <v>50</v>
       </c>
-      <c r="AD19" s="7">
+      <c r="AD19" s="11">
         <v>3</v>
       </c>
-      <c r="AE19" s="7">
+      <c r="AE19" s="11">
         <v>7</v>
       </c>
-      <c r="AF19" s="7">
+      <c r="AF19" s="11">
         <v>12</v>
       </c>
       <c r="AG19" s="4">
@@ -2378,100 +2400,100 @@
         <v>124</v>
       </c>
       <c r="AK19" s="5" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>43897</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="11">
         <v>145</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="11">
         <v>126</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="11">
         <v>305</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="11">
         <v>3</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="11">
         <v>24</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="11">
         <v>58</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
+      <c r="H20" s="11">
+        <v>2</v>
+      </c>
+      <c r="I20" s="11">
         <v>96</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="11">
         <v>14</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="11">
         <v>11</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
+      <c r="L20" s="11"/>
+      <c r="M20" s="11">
+        <v>2</v>
+      </c>
+      <c r="N20" s="11">
         <v>3</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="11">
         <v>70</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="11">
         <v>1</v>
       </c>
-      <c r="Q20" s="7">
-        <v>2</v>
-      </c>
-      <c r="R20" s="7">
+      <c r="Q20" s="11">
+        <v>2</v>
+      </c>
+      <c r="R20" s="11">
         <v>22</v>
       </c>
-      <c r="S20" s="7">
-        <v>2</v>
-      </c>
-      <c r="T20" s="7">
-        <v>2</v>
-      </c>
-      <c r="U20" s="7">
+      <c r="S20" s="11">
+        <v>2</v>
+      </c>
+      <c r="T20" s="11">
+        <v>2</v>
+      </c>
+      <c r="U20" s="11">
         <v>37</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="11">
         <v>11</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="11">
         <v>1</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20" s="11">
         <v>4</v>
       </c>
-      <c r="Y20" s="7">
+      <c r="Y20" s="11">
         <v>27</v>
       </c>
-      <c r="Z20" s="7">
-        <v>2</v>
-      </c>
-      <c r="AA20" s="7">
+      <c r="Z20" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="11">
         <v>46</v>
       </c>
-      <c r="AB20" s="7">
+      <c r="AB20" s="11">
         <v>13</v>
       </c>
-      <c r="AC20" s="7">
+      <c r="AC20" s="11">
         <v>24</v>
       </c>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7">
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11">
         <v>15</v>
       </c>
-      <c r="AF20" s="7">
+      <c r="AF20" s="11">
         <v>8</v>
       </c>
       <c r="AG20" s="4">
@@ -2487,100 +2509,100 @@
         <v>145</v>
       </c>
       <c r="AK20" s="5" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
         <v>43898</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="11">
         <v>17</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="11">
         <v>266</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="11">
         <v>14</v>
       </c>
-      <c r="E21" s="7">
-        <v>2</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="E21" s="11">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11">
         <v>37</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="11">
         <v>13</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="11">
         <v>29</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="11">
         <v>80</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="11">
         <v>9</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="11">
         <v>5</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="11">
         <v>3</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="11">
         <v>5</v>
       </c>
-      <c r="N21" s="7">
-        <v>2</v>
-      </c>
-      <c r="O21" s="7">
-        <v>2</v>
-      </c>
-      <c r="P21" s="7">
+      <c r="N21" s="11">
+        <v>2</v>
+      </c>
+      <c r="O21" s="11">
+        <v>2</v>
+      </c>
+      <c r="P21" s="11">
         <v>9</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="11">
         <v>30</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="11">
         <v>7</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="11">
         <v>19</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T21" s="11">
         <v>1</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="11">
         <v>70</v>
       </c>
-      <c r="V21" s="7">
+      <c r="V21" s="11">
         <v>26</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="11">
         <v>5</v>
       </c>
-      <c r="X21" s="7">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="7">
+      <c r="X21" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="11">
         <v>37</v>
       </c>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7">
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11">
         <v>19</v>
       </c>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7">
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11">
         <v>6</v>
       </c>
-      <c r="AD21" s="7">
+      <c r="AD21" s="11">
         <v>26</v>
       </c>
-      <c r="AE21" s="7">
+      <c r="AE21" s="11">
         <v>1</v>
       </c>
-      <c r="AF21" s="7">
+      <c r="AF21" s="11">
         <v>1</v>
       </c>
       <c r="AG21" s="4">
@@ -2596,94 +2618,94 @@
         <v>194</v>
       </c>
       <c r="AK21" s="5" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
         <v>43899</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="11">
         <v>27</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="11">
         <v>140</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="11">
         <v>13</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11">
         <v>45</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
+      <c r="G22" s="11"/>
+      <c r="H22" s="11">
         <v>40</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="11">
         <v>37</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="11">
         <v>29</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="11">
         <v>17</v>
       </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7">
+      <c r="L22" s="11"/>
+      <c r="M22" s="11">
         <v>5</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="11">
         <v>1</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="11">
         <v>28</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="11">
         <v>22</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="11">
         <v>22</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="11">
         <v>29</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="11">
         <v>3</v>
       </c>
-      <c r="T22" s="7">
+      <c r="T22" s="11">
         <v>15</v>
       </c>
-      <c r="U22" s="7">
+      <c r="U22" s="11">
         <v>54</v>
       </c>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7">
+      <c r="V22" s="11"/>
+      <c r="W22" s="11">
         <v>4</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="11">
         <v>11</v>
       </c>
-      <c r="Y22" s="7">
+      <c r="Y22" s="11">
         <v>7</v>
       </c>
-      <c r="Z22" s="7">
+      <c r="Z22" s="11">
         <v>16</v>
       </c>
-      <c r="AA22" s="7">
+      <c r="AA22" s="11">
         <v>29</v>
       </c>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7">
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11">
         <v>3</v>
       </c>
-      <c r="AD22" s="7">
+      <c r="AD22" s="11">
         <v>-7</v>
       </c>
-      <c r="AE22" s="7">
+      <c r="AE22" s="11">
         <v>-5</v>
       </c>
-      <c r="AF22" s="7">
+      <c r="AF22" s="11">
         <v>10</v>
       </c>
       <c r="AG22" s="4">
@@ -2699,102 +2721,102 @@
         <v>237</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>43900</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="11">
         <v>39</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="11">
         <v>169</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="11">
         <v>253</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="11">
         <v>32</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="11">
         <v>1</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="11">
         <v>4</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="11">
         <v>10</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="11">
         <v>17</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="11">
         <v>18</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="11">
         <v>17</v>
       </c>
-      <c r="L23" s="7">
-        <v>2</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="L23" s="11">
+        <v>2</v>
+      </c>
+      <c r="M23" s="11">
         <v>11</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="11">
         <v>7</v>
       </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7">
+      <c r="O23" s="11"/>
+      <c r="P23" s="11">
         <v>19</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="11">
         <v>17</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="11">
         <v>4</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="11">
         <v>12</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="11">
         <v>11</v>
       </c>
-      <c r="U23" s="7">
+      <c r="U23" s="11">
         <v>27</v>
       </c>
-      <c r="V23" s="7">
+      <c r="V23" s="11">
         <v>17</v>
       </c>
-      <c r="W23" s="7">
+      <c r="W23" s="11">
         <v>37</v>
       </c>
-      <c r="X23" s="7">
+      <c r="X23" s="11">
         <v>7</v>
       </c>
-      <c r="Y23" s="7">
+      <c r="Y23" s="11">
         <v>25</v>
       </c>
-      <c r="Z23" s="7">
+      <c r="Z23" s="11">
         <v>25</v>
       </c>
-      <c r="AA23" s="7">
+      <c r="AA23" s="11">
         <v>39</v>
       </c>
-      <c r="AB23" s="7">
+      <c r="AB23" s="11">
         <v>6</v>
       </c>
-      <c r="AC23" s="7">
+      <c r="AC23" s="11">
         <v>37</v>
       </c>
-      <c r="AD23" s="7">
+      <c r="AD23" s="11">
         <v>14</v>
       </c>
-      <c r="AE23" s="7">
+      <c r="AE23" s="11">
         <v>4</v>
       </c>
-      <c r="AF23" s="7"/>
+      <c r="AF23" s="11"/>
       <c r="AG23" s="4">
         <v>881</v>
       </c>
@@ -2808,100 +2830,100 @@
         <v>291</v>
       </c>
       <c r="AK23" s="5" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
         <v>43901</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="11">
         <v>53</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="11">
         <v>256</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="11">
         <v>32</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="11">
         <v>45</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="11">
         <v>63</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="11">
         <v>9</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="11">
         <v>27</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="11">
         <v>170</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="11">
         <v>19</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="11">
         <v>10</v>
       </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7">
+      <c r="L24" s="11"/>
+      <c r="M24" s="11">
         <v>1</v>
       </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7">
+      <c r="N24" s="11"/>
+      <c r="O24" s="11">
         <v>5</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="11">
         <v>1</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="11">
         <v>29</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="11">
         <v>27</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="11">
         <v>6</v>
       </c>
-      <c r="T24" s="7">
+      <c r="T24" s="11">
         <v>22</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U24" s="11">
         <v>31</v>
       </c>
-      <c r="V24" s="7">
+      <c r="V24" s="11">
         <v>7</v>
       </c>
-      <c r="W24" s="7">
+      <c r="W24" s="11">
         <v>17</v>
       </c>
-      <c r="X24" s="7">
+      <c r="X24" s="11">
         <v>8</v>
       </c>
-      <c r="Y24" s="7">
+      <c r="Y24" s="11">
         <v>9</v>
       </c>
-      <c r="Z24" s="7">
+      <c r="Z24" s="11">
         <v>6</v>
       </c>
-      <c r="AA24" s="7">
+      <c r="AA24" s="11">
         <v>34</v>
       </c>
-      <c r="AB24" s="7">
+      <c r="AB24" s="11">
         <v>4</v>
       </c>
-      <c r="AC24" s="7">
+      <c r="AC24" s="11">
         <v>23</v>
       </c>
-      <c r="AD24" s="7">
+      <c r="AD24" s="11">
         <v>15</v>
       </c>
-      <c r="AE24" s="7">
+      <c r="AE24" s="11">
         <v>18</v>
       </c>
-      <c r="AF24" s="7">
+      <c r="AF24" s="11">
         <v>11</v>
       </c>
       <c r="AG24" s="4">
@@ -2917,102 +2939,102 @@
         <v>354</v>
       </c>
       <c r="AK24" s="5" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
         <v>43902</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="11">
         <v>42</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="11">
         <v>303</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="11">
         <v>79</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="11">
         <v>74</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="11">
         <v>40</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="11">
         <v>25</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="11">
         <v>42</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="11">
         <v>4</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="11">
         <v>29</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7">
+      <c r="K25" s="11"/>
+      <c r="L25" s="11">
         <v>15</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="11">
         <v>11</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="11">
         <v>3</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="11">
         <v>84</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="11">
         <v>14</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="11">
         <v>7</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="11">
         <v>19</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="11">
         <v>9</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T25" s="11">
         <v>17</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U25" s="11">
         <v>88</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V25" s="11">
         <v>12</v>
       </c>
-      <c r="W25" s="7">
+      <c r="W25" s="11">
         <v>31</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25" s="11">
         <v>20</v>
       </c>
-      <c r="Y25" s="7">
+      <c r="Y25" s="11">
         <v>25</v>
       </c>
-      <c r="Z25" s="7">
+      <c r="Z25" s="11">
         <v>7</v>
       </c>
-      <c r="AA25" s="7">
+      <c r="AA25" s="11">
         <v>29</v>
       </c>
-      <c r="AB25" s="7">
+      <c r="AB25" s="11">
         <v>6</v>
       </c>
-      <c r="AC25" s="7">
+      <c r="AC25" s="11">
         <v>21</v>
       </c>
-      <c r="AD25" s="7">
+      <c r="AD25" s="11">
         <v>12</v>
       </c>
-      <c r="AE25" s="7">
+      <c r="AE25" s="11">
         <v>7</v>
       </c>
-      <c r="AF25" s="7"/>
+      <c r="AF25" s="11"/>
       <c r="AG25" s="4">
         <v>1075</v>
       </c>
@@ -3026,96 +3048,96 @@
         <v>429</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
         <v>43903</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="11">
         <v>42</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="11">
         <v>303</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="11">
         <v>192</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="11">
         <v>6</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="11">
         <v>38</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="11">
         <v>21</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="11">
         <v>12</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="11">
         <v>110</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="11">
         <v>33</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="11">
         <v>4</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7">
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11">
         <v>71</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="11">
         <v>15</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="11">
         <v>97</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="11">
         <v>25</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S26" s="11">
         <v>9</v>
       </c>
-      <c r="T26" s="7">
+      <c r="T26" s="11">
         <v>20</v>
       </c>
-      <c r="U26" s="7">
+      <c r="U26" s="11">
         <v>48</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="11">
         <v>10</v>
       </c>
-      <c r="W26" s="7">
+      <c r="W26" s="11">
         <v>15</v>
       </c>
-      <c r="X26" s="7">
+      <c r="X26" s="11">
         <v>15</v>
       </c>
-      <c r="Y26" s="7">
+      <c r="Y26" s="11">
         <v>25</v>
       </c>
-      <c r="Z26" s="7">
+      <c r="Z26" s="11">
         <v>8</v>
       </c>
-      <c r="AA26" s="7">
+      <c r="AA26" s="11">
         <v>110</v>
       </c>
-      <c r="AB26" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC26" s="7">
+      <c r="AB26" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="11">
         <v>46</v>
       </c>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7">
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11">
         <v>12</v>
       </c>
-      <c r="AF26" s="7"/>
+      <c r="AF26" s="11"/>
       <c r="AG26" s="4">
         <v>1289</v>
       </c>
@@ -3129,94 +3151,94 @@
         <v>514</v>
       </c>
       <c r="AK26" s="5" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
         <v>43904</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="11">
         <v>32</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="11">
         <v>347</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="11">
         <v>17</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="11">
         <v>134</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="11">
         <v>47</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7">
+      <c r="G27" s="11"/>
+      <c r="H27" s="11">
         <v>47</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="11">
         <v>155</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="11">
         <v>11</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7">
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11">
         <v>7</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="11">
         <v>113</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="11">
         <v>33</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="11">
         <v>59</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R27" s="11">
         <v>31</v>
       </c>
-      <c r="S27" s="7">
+      <c r="S27" s="11">
         <v>5</v>
       </c>
-      <c r="T27" s="7">
+      <c r="T27" s="11">
         <v>31</v>
       </c>
-      <c r="U27" s="7">
+      <c r="U27" s="11">
         <v>115</v>
       </c>
-      <c r="V27" s="7">
+      <c r="V27" s="11">
         <v>7</v>
       </c>
-      <c r="W27" s="7">
+      <c r="W27" s="11">
         <v>48</v>
       </c>
-      <c r="X27" s="7">
+      <c r="X27" s="11">
         <v>8</v>
       </c>
-      <c r="Y27" s="7">
-        <v>2</v>
-      </c>
-      <c r="Z27" s="7">
+      <c r="Y27" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="11">
         <v>6</v>
       </c>
-      <c r="AA27" s="7">
+      <c r="AA27" s="11">
         <v>30</v>
       </c>
-      <c r="AB27" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC27" s="7">
+      <c r="AB27" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="11">
         <v>73</v>
       </c>
-      <c r="AD27" s="7">
+      <c r="AD27" s="11">
         <v>4</v>
       </c>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7">
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11">
         <v>1</v>
       </c>
       <c r="AG27" s="4">
@@ -3232,98 +3254,98 @@
         <v>611</v>
       </c>
       <c r="AK27" s="5" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
         <v>43905</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="11">
         <v>84</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="11">
         <v>251</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="11">
         <v>72</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="11">
         <v>67</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="11">
         <v>41</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="11">
         <v>25</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="11">
         <v>22</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="11">
         <v>126</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="11">
         <v>9</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="11">
         <v>7</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="11">
         <v>1</v>
       </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7">
+      <c r="M28" s="11"/>
+      <c r="N28" s="11">
         <v>6</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="11">
         <v>43</v>
       </c>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7">
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11">
         <v>36</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R28" s="11">
         <v>18</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S28" s="11">
         <v>27</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T28" s="11">
         <v>32</v>
       </c>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7">
+      <c r="U28" s="11"/>
+      <c r="V28" s="11">
         <v>11</v>
       </c>
-      <c r="W28" s="7">
+      <c r="W28" s="11">
         <v>32</v>
       </c>
-      <c r="X28" s="7">
+      <c r="X28" s="11">
         <v>13</v>
       </c>
-      <c r="Y28" s="7">
+      <c r="Y28" s="11">
         <v>52</v>
       </c>
-      <c r="Z28" s="7">
+      <c r="Z28" s="11">
         <v>18</v>
       </c>
-      <c r="AA28" s="7">
+      <c r="AA28" s="11">
         <v>143</v>
       </c>
-      <c r="AB28" s="7">
+      <c r="AB28" s="11">
         <v>6</v>
       </c>
-      <c r="AC28" s="7">
+      <c r="AC28" s="11">
         <v>36</v>
       </c>
-      <c r="AD28" s="7">
+      <c r="AD28" s="11">
         <v>18</v>
       </c>
-      <c r="AE28" s="7">
+      <c r="AE28" s="11">
         <v>7</v>
       </c>
-      <c r="AF28" s="7">
+      <c r="AF28" s="11">
         <v>6</v>
       </c>
       <c r="AG28" s="4">
@@ -3339,7 +3361,7 @@
         <v>724</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3447,103 +3469,103 @@
       <c r="AJ29" s="4">
         <v>853</v>
       </c>
-      <c r="AK29" s="6" t="s">
-        <v>44</v>
+      <c r="AK29" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
         <v>43907</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>29</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>273</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <v>59</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="11">
         <v>116</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <v>33</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="11">
         <v>30</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>26</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="11">
         <v>75</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="11">
         <v>31</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="11">
         <v>6</v>
       </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12">
-        <v>2</v>
-      </c>
-      <c r="N30" s="12">
+      <c r="L30" s="11"/>
+      <c r="M30" s="11">
+        <v>2</v>
+      </c>
+      <c r="N30" s="11">
         <v>4</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="11">
         <v>45</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="11">
         <v>19</v>
       </c>
-      <c r="Q30" s="12">
+      <c r="Q30" s="11">
         <v>78</v>
       </c>
-      <c r="R30" s="12">
+      <c r="R30" s="11">
         <v>34</v>
       </c>
-      <c r="S30" s="12">
-        <v>2</v>
-      </c>
-      <c r="T30" s="12">
+      <c r="S30" s="11">
+        <v>2</v>
+      </c>
+      <c r="T30" s="11">
         <v>25</v>
       </c>
-      <c r="U30" s="12">
+      <c r="U30" s="11">
         <v>47</v>
       </c>
-      <c r="V30" s="12">
+      <c r="V30" s="11">
         <v>6</v>
       </c>
-      <c r="W30" s="12">
+      <c r="W30" s="11">
         <v>25</v>
       </c>
-      <c r="X30" s="12">
+      <c r="X30" s="11">
         <v>14</v>
       </c>
-      <c r="Y30" s="12">
+      <c r="Y30" s="11">
         <v>35</v>
       </c>
-      <c r="Z30" s="12">
+      <c r="Z30" s="11">
         <v>7</v>
       </c>
-      <c r="AA30" s="12">
+      <c r="AA30" s="11">
         <v>63</v>
       </c>
-      <c r="AB30" s="12">
+      <c r="AB30" s="11">
         <v>11</v>
       </c>
-      <c r="AC30" s="12">
+      <c r="AC30" s="11">
         <v>49</v>
       </c>
-      <c r="AD30" s="12">
+      <c r="AD30" s="11">
         <v>12</v>
       </c>
-      <c r="AE30" s="12">
+      <c r="AE30" s="11">
         <v>19</v>
       </c>
-      <c r="AF30" s="12">
+      <c r="AF30" s="11">
         <v>3</v>
       </c>
       <c r="AG30" s="4">
@@ -3558,17 +3580,565 @@
       <c r="AJ30" s="4">
         <v>988</v>
       </c>
+      <c r="AK30" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3">
+        <v>43908</v>
+      </c>
+      <c r="B31" s="11">
+        <v>22</v>
+      </c>
+      <c r="C31" s="11">
+        <v>213</v>
+      </c>
+      <c r="D31" s="11">
+        <v>61</v>
+      </c>
+      <c r="E31" s="11">
+        <v>76</v>
+      </c>
+      <c r="F31" s="11">
+        <v>60</v>
+      </c>
+      <c r="G31" s="11">
+        <v>20</v>
+      </c>
+      <c r="H31" s="11">
+        <v>53</v>
+      </c>
+      <c r="I31" s="11">
+        <v>162</v>
+      </c>
+      <c r="J31" s="11">
+        <v>60</v>
+      </c>
+      <c r="K31" s="11">
+        <v>12</v>
+      </c>
+      <c r="L31" s="11">
+        <v>13</v>
+      </c>
+      <c r="M31" s="11">
+        <v>4</v>
+      </c>
+      <c r="N31" s="11">
+        <v>4</v>
+      </c>
+      <c r="O31" s="11">
+        <v>21</v>
+      </c>
+      <c r="P31" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>84</v>
+      </c>
+      <c r="R31" s="11">
+        <v>42</v>
+      </c>
+      <c r="S31" s="11">
+        <v>22</v>
+      </c>
+      <c r="T31" s="11">
+        <v>20</v>
+      </c>
+      <c r="U31" s="11">
+        <v>23</v>
+      </c>
+      <c r="V31" s="11">
+        <v>13</v>
+      </c>
+      <c r="W31" s="11">
+        <v>28</v>
+      </c>
+      <c r="X31" s="11">
+        <v>7</v>
+      </c>
+      <c r="Y31" s="11">
+        <v>39</v>
+      </c>
+      <c r="Z31" s="11">
+        <v>10</v>
+      </c>
+      <c r="AA31" s="11">
+        <v>30</v>
+      </c>
+      <c r="AB31" s="11">
+        <v>6</v>
+      </c>
+      <c r="AC31" s="11">
+        <v>45</v>
+      </c>
+      <c r="AD31" s="11">
+        <v>21</v>
+      </c>
+      <c r="AE31" s="11">
+        <v>11</v>
+      </c>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="4">
+        <v>1192</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>17361</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>147</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>1135</v>
+      </c>
+      <c r="AK31" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3">
+        <v>43909</v>
+      </c>
+      <c r="B32" s="11">
+        <v>31</v>
+      </c>
+      <c r="C32" s="11">
+        <v>137</v>
+      </c>
+      <c r="D32" s="11">
+        <v>58</v>
+      </c>
+      <c r="E32" s="11">
+        <v>61</v>
+      </c>
+      <c r="F32" s="11">
+        <v>16</v>
+      </c>
+      <c r="G32" s="11">
+        <v>9</v>
+      </c>
+      <c r="H32" s="11">
+        <v>47</v>
+      </c>
+      <c r="I32" s="11">
+        <v>108</v>
+      </c>
+      <c r="J32" s="11">
+        <v>21</v>
+      </c>
+      <c r="K32" s="11">
+        <v>5</v>
+      </c>
+      <c r="L32" s="11">
+        <v>15</v>
+      </c>
+      <c r="M32" s="11">
+        <v>3</v>
+      </c>
+      <c r="N32" s="11">
+        <v>8</v>
+      </c>
+      <c r="O32" s="11">
+        <v>73</v>
+      </c>
+      <c r="P32" s="11">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>58</v>
+      </c>
+      <c r="R32" s="11">
+        <v>26</v>
+      </c>
+      <c r="S32" s="11">
+        <v>11</v>
+      </c>
+      <c r="T32" s="11">
+        <v>26</v>
+      </c>
+      <c r="U32" s="11">
+        <v>47</v>
+      </c>
+      <c r="V32" s="11">
+        <v>3</v>
+      </c>
+      <c r="W32" s="11">
+        <v>22</v>
+      </c>
+      <c r="X32" s="11">
+        <v>23</v>
+      </c>
+      <c r="Y32" s="11">
+        <v>37</v>
+      </c>
+      <c r="Z32" s="11">
+        <v>8</v>
+      </c>
+      <c r="AA32" s="11">
+        <v>50</v>
+      </c>
+      <c r="AB32" s="11">
+        <v>18</v>
+      </c>
+      <c r="AC32" s="11">
+        <v>69</v>
+      </c>
+      <c r="AD32" s="11">
+        <v>5</v>
+      </c>
+      <c r="AE32" s="11">
+        <v>14</v>
+      </c>
+      <c r="AF32" s="11">
+        <v>21</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>1046</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>18407</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>149</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>1284</v>
+      </c>
+      <c r="AK32" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B33" s="11">
+        <v>36</v>
+      </c>
+      <c r="C33" s="11">
+        <v>220</v>
+      </c>
+      <c r="D33" s="11">
+        <v>84</v>
+      </c>
+      <c r="E33" s="11">
+        <v>95</v>
+      </c>
+      <c r="F33" s="11">
+        <v>52</v>
+      </c>
+      <c r="G33" s="11">
+        <v>15</v>
+      </c>
+      <c r="H33" s="11">
+        <v>8</v>
+      </c>
+      <c r="I33" s="11">
+        <v>145</v>
+      </c>
+      <c r="J33" s="11">
+        <v>50</v>
+      </c>
+      <c r="K33" s="11">
+        <v>17</v>
+      </c>
+      <c r="L33" s="11">
+        <v>1</v>
+      </c>
+      <c r="M33" s="11">
+        <v>3</v>
+      </c>
+      <c r="N33" s="11">
+        <v>1</v>
+      </c>
+      <c r="O33" s="11">
+        <v>99</v>
+      </c>
+      <c r="P33" s="11">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>55</v>
+      </c>
+      <c r="R33" s="11">
+        <v>27</v>
+      </c>
+      <c r="S33" s="11">
+        <v>15</v>
+      </c>
+      <c r="T33" s="11">
+        <v>44</v>
+      </c>
+      <c r="U33" s="11">
+        <v>17</v>
+      </c>
+      <c r="V33" s="11">
+        <v>5</v>
+      </c>
+      <c r="W33" s="11">
+        <v>10</v>
+      </c>
+      <c r="X33" s="11">
+        <v>22</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>9</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>20</v>
+      </c>
+      <c r="AA33" s="11">
+        <v>48</v>
+      </c>
+      <c r="AB33" s="11">
+        <v>8</v>
+      </c>
+      <c r="AC33" s="11">
+        <v>49</v>
+      </c>
+      <c r="AD33" s="11">
+        <v>18</v>
+      </c>
+      <c r="AE33" s="11">
+        <v>12</v>
+      </c>
+      <c r="AF33" s="11">
+        <v>17</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>1237</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>19644</v>
+      </c>
+      <c r="AI33" s="4">
+        <v>149</v>
+      </c>
+      <c r="AJ33" s="4">
+        <v>1433</v>
+      </c>
+      <c r="AK33" s="11"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3">
+        <v>43911</v>
+      </c>
+      <c r="B34" s="11">
+        <v>20</v>
+      </c>
+      <c r="C34" s="11">
+        <v>232</v>
+      </c>
+      <c r="D34" s="11">
+        <v>28</v>
+      </c>
+      <c r="E34" s="11">
+        <v>55</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11">
+        <v>6</v>
+      </c>
+      <c r="H34" s="11">
+        <v>59</v>
+      </c>
+      <c r="I34" s="11">
+        <v>101</v>
+      </c>
+      <c r="J34" s="11">
+        <v>22</v>
+      </c>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11">
+        <v>12</v>
+      </c>
+      <c r="M34" s="11">
+        <v>2</v>
+      </c>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11">
+        <v>57</v>
+      </c>
+      <c r="P34" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>72</v>
+      </c>
+      <c r="R34" s="11">
+        <v>14</v>
+      </c>
+      <c r="S34" s="11">
+        <v>7</v>
+      </c>
+      <c r="T34" s="11">
+        <v>35</v>
+      </c>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11">
+        <v>5</v>
+      </c>
+      <c r="W34" s="11">
+        <v>31</v>
+      </c>
+      <c r="X34" s="11">
+        <v>27</v>
+      </c>
+      <c r="Y34" s="11">
+        <v>34</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>18</v>
+      </c>
+      <c r="AA34" s="11">
+        <v>57</v>
+      </c>
+      <c r="AB34" s="11">
+        <v>5</v>
+      </c>
+      <c r="AC34" s="11">
+        <v>52</v>
+      </c>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11">
+        <v>8</v>
+      </c>
+      <c r="AF34" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>966</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>20610</v>
+      </c>
+      <c r="AI34" s="4">
+        <v>123</v>
+      </c>
+      <c r="AJ34" s="4">
+        <v>1556</v>
+      </c>
+      <c r="AK34" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="3">
+        <v>43912</v>
+      </c>
+      <c r="B35" s="11">
+        <v>17</v>
+      </c>
+      <c r="C35" s="11">
+        <v>249</v>
+      </c>
+      <c r="D35" s="11">
+        <v>36</v>
+      </c>
+      <c r="E35" s="11">
+        <v>60</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11">
+        <v>10</v>
+      </c>
+      <c r="H35" s="11">
+        <v>29</v>
+      </c>
+      <c r="I35" s="11">
+        <v>87</v>
+      </c>
+      <c r="J35" s="11">
+        <v>26</v>
+      </c>
+      <c r="K35" s="11">
+        <v>2</v>
+      </c>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11">
+        <v>2</v>
+      </c>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11">
+        <v>38</v>
+      </c>
+      <c r="P35" s="11">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>57</v>
+      </c>
+      <c r="R35" s="11">
+        <v>28</v>
+      </c>
+      <c r="S35" s="11">
+        <v>16</v>
+      </c>
+      <c r="T35" s="11">
+        <v>28</v>
+      </c>
+      <c r="U35" s="11">
+        <v>36</v>
+      </c>
+      <c r="V35" s="11">
+        <v>7</v>
+      </c>
+      <c r="W35" s="11">
+        <v>22</v>
+      </c>
+      <c r="X35" s="11">
+        <v>19</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>33</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>17</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>42</v>
+      </c>
+      <c r="AB35" s="11">
+        <v>15</v>
+      </c>
+      <c r="AC35" s="11">
+        <v>84</v>
+      </c>
+      <c r="AD35" s="11">
+        <v>15</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>8</v>
+      </c>
+      <c r="AF35" s="11">
+        <v>26</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>1028</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>21638</v>
+      </c>
+      <c r="AI35" s="4">
+        <v>129</v>
+      </c>
+      <c r="AJ35" s="4">
+        <v>1685</v>
+      </c>
+      <c r="AK35" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41:AF41" si="0">B$14/SUM($B$14:$AF$14)*$AG15</f>
+        <f>B$14/SUM($B$14:$AF$14)*$AG15</f>
         <v>40.647668393782382</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C41:AF41" si="0">C$14/SUM($B$14:$AF$14)*$AG15</f>
         <v>230.33678756476684</v>
       </c>
       <c r="D41">
@@ -3692,7 +4262,7 @@
         <v>522.99999999999989</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="B42">
         <f t="shared" ref="B42:AF42" si="1">B$14/SUM($B$14:$AF$14)*$AG16</f>
         <v>64.896373056994818</v>
@@ -3836,29 +4406,33 @@
     <mergeCell ref="AA1:AF1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AK7" r:id="rId1" location="cite_note-85" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-85" xr:uid="{9E2FDDA9-82C0-4377-8EA4-B0579C264D77}"/>
-    <hyperlink ref="AK8" r:id="rId2" location="cite_note-86" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-86" xr:uid="{285256D0-D97A-48C0-806D-4212D9316E51}"/>
-    <hyperlink ref="AK9" r:id="rId3" location="cite_note-:0-67" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-:0-67" xr:uid="{12721189-00A0-4728-9F4B-6014C91CF68F}"/>
-    <hyperlink ref="AK10" r:id="rId4" location="cite_note-87" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-87" xr:uid="{9B1455C1-E32D-49AB-89DF-3ED684FDB8B9}"/>
-    <hyperlink ref="AK11" r:id="rId5" location="cite_note-MOH27Feb-68" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-MOH27Feb-68" xr:uid="{FF3B482D-23EA-4433-9061-E9DF303044B4}"/>
-    <hyperlink ref="AK12" r:id="rId6" location="cite_note-MOH28Feb-37" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-MOH28Feb-37" xr:uid="{23135DA4-C5F4-4EA2-97A9-9828F5F605DD}"/>
-    <hyperlink ref="AK13" r:id="rId7" location="cite_note-MOH29Feb-70" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-MOH29Feb-70" xr:uid="{840FAFE0-F311-4230-A127-FAF8BFCEC4B7}"/>
-    <hyperlink ref="AK14" r:id="rId8" location="cite_note-MOH01Mar-71" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-MOH01Mar-71" xr:uid="{77E97A3A-9057-4848-A860-581E4D3ABF52}"/>
-    <hyperlink ref="AK15" r:id="rId9" location="cite_note-Behdasht_523cases_12deaths_2Mar-39" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-Behdasht_523cases_12deaths_2Mar-39" xr:uid="{FA3A6664-F77C-4370-84EF-583F4A6ECBF7}"/>
-    <hyperlink ref="AK16" r:id="rId10" location="cite_note-Behdasht_3Mar-72" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-Behdasht_3Mar-72" xr:uid="{838846AC-F02E-4CE7-8303-8510F2D41579}"/>
-    <hyperlink ref="AK29" r:id="rId11" location="cite_note-Behdasht_16Mar-86" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-Behdasht_16Mar-86" xr:uid="{DB44A432-0A81-4318-BA23-53EB4F37B332}"/>
+    <hyperlink ref="AK7" r:id="rId1" location="cite_note-119" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-119" xr:uid="{CBC9FFD0-5BC1-4136-9586-68ABA9E841ED}"/>
+    <hyperlink ref="AK8" r:id="rId2" location="cite_note-120" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-120" xr:uid="{61794B66-5F9B-47F0-92D6-6ECB022EDB5D}"/>
+    <hyperlink ref="AK9" r:id="rId3" location="cite_note-:0-91" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-:0-91" xr:uid="{D3DE4A1D-7708-4EF9-9FE3-738AAA89DEA9}"/>
+    <hyperlink ref="AK10" r:id="rId4" location="cite_note-121" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-121" xr:uid="{7419BAE3-98BD-417B-BECB-0C2A55FB29F2}"/>
+    <hyperlink ref="AK11" r:id="rId5" location="cite_note-MOH27Feb-93" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-MOH27Feb-93" xr:uid="{B73E0FB6-E760-409C-A52B-4C3DAE117599}"/>
+    <hyperlink ref="AK12" r:id="rId6" location="cite_note-MOH28Feb-41" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-MOH28Feb-41" xr:uid="{D74B3F13-5A5F-4B90-AA48-C0CBB9CAD9A2}"/>
+    <hyperlink ref="AK13" r:id="rId7" location="cite_note-MOH29Feb-95" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-MOH29Feb-95" xr:uid="{E9E846B0-0DD6-49EC-B961-E372C645B980}"/>
+    <hyperlink ref="AK14" r:id="rId8" location="cite_note-MOH01Mar-96" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-MOH01Mar-96" xr:uid="{AB9BE4FD-3DD3-41A3-BC7E-8149F458AB9A}"/>
+    <hyperlink ref="AK15" r:id="rId9" location="cite_note-Behdasht_523cases_12deaths_2Mar-43" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-Behdasht_523cases_12deaths_2Mar-43" xr:uid="{A02F2770-7ADC-4E30-BFBF-68B3C1EE4C62}"/>
+    <hyperlink ref="AK16" r:id="rId10" location="cite_note-Behdasht_3Mar-97" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-Behdasht_3Mar-97" xr:uid="{F76014A8-79C0-4CB9-B836-5E6738C41D67}"/>
+    <hyperlink ref="AK30" r:id="rId11" location="cite_note-135" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-135" xr:uid="{773E3C3A-EA88-4307-B08A-E9236FB0D019}"/>
+    <hyperlink ref="AK31" r:id="rId12" location="cite_note-136" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-136" xr:uid="{49C25A51-37BB-4103-90D4-F3EC7AE14F64}"/>
+    <hyperlink ref="AK32" r:id="rId13" location="cite_note-137" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-137" xr:uid="{7FB49017-CC14-4E1C-B44F-7BE8B639A42C}"/>
+    <hyperlink ref="AK34" r:id="rId14" location="cite_note-138" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-138" xr:uid="{BCD7E205-4EC6-40AC-833A-256FDF2A6A74}"/>
+    <hyperlink ref="AK35" r:id="rId15" location="cite_note-139" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran - cite_note-139" xr:uid="{72079435-F183-4B9F-85D7-82B2E14865FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId12"/>
+  <legacyDrawing r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8718F20A-ECEC-400B-A794-B61741261610}">
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3868,106 +4442,106 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
+      <c r="Z1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" t="s">
+      <c r="AA1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AB1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AC1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AD1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AE1" t="s">
         <v>105</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AF1" t="s">
         <v>106</v>
       </c>
-      <c r="J1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S1" t="s">
-        <v>116</v>
-      </c>
-      <c r="T1" t="s">
-        <v>117</v>
-      </c>
-      <c r="U1" t="s">
-        <v>118</v>
-      </c>
-      <c r="V1" t="s">
-        <v>119</v>
-      </c>
-      <c r="W1" t="s">
-        <v>120</v>
-      </c>
-      <c r="X1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>129</v>
-      </c>
       <c r="AG1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.55000000000000004">
@@ -7832,6 +8406,696 @@
       <c r="AH29">
         <f>'200314_cases_raw'!AI30</f>
         <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
+        <f>'200314_cases_raw'!A31</f>
+        <v>43908</v>
+      </c>
+      <c r="B30">
+        <f>'200314_cases_raw'!B31</f>
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <f>'200314_cases_raw'!C31</f>
+        <v>213</v>
+      </c>
+      <c r="D30">
+        <f>'200314_cases_raw'!D31</f>
+        <v>61</v>
+      </c>
+      <c r="E30">
+        <f>'200314_cases_raw'!E31</f>
+        <v>76</v>
+      </c>
+      <c r="F30">
+        <f>'200314_cases_raw'!F31</f>
+        <v>60</v>
+      </c>
+      <c r="G30">
+        <f>'200314_cases_raw'!G31</f>
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <f>'200314_cases_raw'!H31</f>
+        <v>53</v>
+      </c>
+      <c r="I30">
+        <f>'200314_cases_raw'!I31</f>
+        <v>162</v>
+      </c>
+      <c r="J30">
+        <f>'200314_cases_raw'!J31</f>
+        <v>60</v>
+      </c>
+      <c r="K30">
+        <f>'200314_cases_raw'!K31</f>
+        <v>12</v>
+      </c>
+      <c r="L30">
+        <f>'200314_cases_raw'!L31</f>
+        <v>13</v>
+      </c>
+      <c r="M30">
+        <f>'200314_cases_raw'!M31</f>
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <f>'200314_cases_raw'!N31</f>
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <f>'200314_cases_raw'!O31</f>
+        <v>21</v>
+      </c>
+      <c r="P30">
+        <f>'200314_cases_raw'!P31</f>
+        <v>10</v>
+      </c>
+      <c r="Q30">
+        <f>'200314_cases_raw'!Q31</f>
+        <v>84</v>
+      </c>
+      <c r="R30">
+        <f>'200314_cases_raw'!R31</f>
+        <v>42</v>
+      </c>
+      <c r="S30">
+        <f>'200314_cases_raw'!S31</f>
+        <v>22</v>
+      </c>
+      <c r="T30">
+        <f>'200314_cases_raw'!T31</f>
+        <v>20</v>
+      </c>
+      <c r="U30">
+        <f>'200314_cases_raw'!U31</f>
+        <v>23</v>
+      </c>
+      <c r="V30">
+        <f>'200314_cases_raw'!V31</f>
+        <v>13</v>
+      </c>
+      <c r="W30">
+        <f>'200314_cases_raw'!W31</f>
+        <v>28</v>
+      </c>
+      <c r="X30">
+        <f>'200314_cases_raw'!X31</f>
+        <v>7</v>
+      </c>
+      <c r="Y30">
+        <f>'200314_cases_raw'!Y31</f>
+        <v>39</v>
+      </c>
+      <c r="Z30">
+        <f>'200314_cases_raw'!Z31</f>
+        <v>10</v>
+      </c>
+      <c r="AA30">
+        <f>'200314_cases_raw'!AA31</f>
+        <v>30</v>
+      </c>
+      <c r="AB30">
+        <f>'200314_cases_raw'!AB31</f>
+        <v>6</v>
+      </c>
+      <c r="AC30">
+        <f>'200314_cases_raw'!AC31</f>
+        <v>45</v>
+      </c>
+      <c r="AD30">
+        <f>'200314_cases_raw'!AD31</f>
+        <v>21</v>
+      </c>
+      <c r="AE30">
+        <f>'200314_cases_raw'!AE31</f>
+        <v>11</v>
+      </c>
+      <c r="AF30">
+        <f>'200314_cases_raw'!AF31</f>
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <f>'200314_cases_raw'!AG31</f>
+        <v>1192</v>
+      </c>
+      <c r="AH30">
+        <f>'200314_cases_raw'!AI31</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2">
+        <f>'200314_cases_raw'!A32</f>
+        <v>43909</v>
+      </c>
+      <c r="B31">
+        <f>'200314_cases_raw'!B32</f>
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <f>'200314_cases_raw'!C32</f>
+        <v>137</v>
+      </c>
+      <c r="D31">
+        <f>'200314_cases_raw'!D32</f>
+        <v>58</v>
+      </c>
+      <c r="E31">
+        <f>'200314_cases_raw'!E32</f>
+        <v>61</v>
+      </c>
+      <c r="F31">
+        <f>'200314_cases_raw'!F32</f>
+        <v>16</v>
+      </c>
+      <c r="G31">
+        <f>'200314_cases_raw'!G32</f>
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <f>'200314_cases_raw'!H32</f>
+        <v>47</v>
+      </c>
+      <c r="I31">
+        <f>'200314_cases_raw'!I32</f>
+        <v>108</v>
+      </c>
+      <c r="J31">
+        <f>'200314_cases_raw'!J32</f>
+        <v>21</v>
+      </c>
+      <c r="K31">
+        <f>'200314_cases_raw'!K32</f>
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <f>'200314_cases_raw'!L32</f>
+        <v>15</v>
+      </c>
+      <c r="M31">
+        <f>'200314_cases_raw'!M32</f>
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <f>'200314_cases_raw'!N32</f>
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <f>'200314_cases_raw'!O32</f>
+        <v>73</v>
+      </c>
+      <c r="P31">
+        <f>'200314_cases_raw'!P32</f>
+        <v>16</v>
+      </c>
+      <c r="Q31">
+        <f>'200314_cases_raw'!Q32</f>
+        <v>58</v>
+      </c>
+      <c r="R31">
+        <f>'200314_cases_raw'!R32</f>
+        <v>26</v>
+      </c>
+      <c r="S31">
+        <f>'200314_cases_raw'!S32</f>
+        <v>11</v>
+      </c>
+      <c r="T31">
+        <f>'200314_cases_raw'!T32</f>
+        <v>26</v>
+      </c>
+      <c r="U31">
+        <f>'200314_cases_raw'!U32</f>
+        <v>47</v>
+      </c>
+      <c r="V31">
+        <f>'200314_cases_raw'!V32</f>
+        <v>3</v>
+      </c>
+      <c r="W31">
+        <f>'200314_cases_raw'!W32</f>
+        <v>22</v>
+      </c>
+      <c r="X31">
+        <f>'200314_cases_raw'!X32</f>
+        <v>23</v>
+      </c>
+      <c r="Y31">
+        <f>'200314_cases_raw'!Y32</f>
+        <v>37</v>
+      </c>
+      <c r="Z31">
+        <f>'200314_cases_raw'!Z32</f>
+        <v>8</v>
+      </c>
+      <c r="AA31">
+        <f>'200314_cases_raw'!AA32</f>
+        <v>50</v>
+      </c>
+      <c r="AB31">
+        <f>'200314_cases_raw'!AB32</f>
+        <v>18</v>
+      </c>
+      <c r="AC31">
+        <f>'200314_cases_raw'!AC32</f>
+        <v>69</v>
+      </c>
+      <c r="AD31">
+        <f>'200314_cases_raw'!AD32</f>
+        <v>5</v>
+      </c>
+      <c r="AE31">
+        <f>'200314_cases_raw'!AE32</f>
+        <v>14</v>
+      </c>
+      <c r="AF31">
+        <f>'200314_cases_raw'!AF32</f>
+        <v>21</v>
+      </c>
+      <c r="AG31">
+        <f>'200314_cases_raw'!AG32</f>
+        <v>1046</v>
+      </c>
+      <c r="AH31">
+        <f>'200314_cases_raw'!AI32</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2">
+        <f>'200314_cases_raw'!A33</f>
+        <v>43910</v>
+      </c>
+      <c r="B32">
+        <f>'200314_cases_raw'!B33</f>
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <f>'200314_cases_raw'!C33</f>
+        <v>220</v>
+      </c>
+      <c r="D32">
+        <f>'200314_cases_raw'!D33</f>
+        <v>84</v>
+      </c>
+      <c r="E32">
+        <f>'200314_cases_raw'!E33</f>
+        <v>95</v>
+      </c>
+      <c r="F32">
+        <f>'200314_cases_raw'!F33</f>
+        <v>52</v>
+      </c>
+      <c r="G32">
+        <f>'200314_cases_raw'!G33</f>
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <f>'200314_cases_raw'!H33</f>
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <f>'200314_cases_raw'!I33</f>
+        <v>145</v>
+      </c>
+      <c r="J32">
+        <f>'200314_cases_raw'!J33</f>
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <f>'200314_cases_raw'!K33</f>
+        <v>17</v>
+      </c>
+      <c r="L32">
+        <f>'200314_cases_raw'!L33</f>
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f>'200314_cases_raw'!M33</f>
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <f>'200314_cases_raw'!N33</f>
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <f>'200314_cases_raw'!O33</f>
+        <v>99</v>
+      </c>
+      <c r="P32">
+        <f>'200314_cases_raw'!P33</f>
+        <v>35</v>
+      </c>
+      <c r="Q32">
+        <f>'200314_cases_raw'!Q33</f>
+        <v>55</v>
+      </c>
+      <c r="R32">
+        <f>'200314_cases_raw'!R33</f>
+        <v>27</v>
+      </c>
+      <c r="S32">
+        <f>'200314_cases_raw'!S33</f>
+        <v>15</v>
+      </c>
+      <c r="T32">
+        <f>'200314_cases_raw'!T33</f>
+        <v>44</v>
+      </c>
+      <c r="U32">
+        <f>'200314_cases_raw'!U33</f>
+        <v>17</v>
+      </c>
+      <c r="V32">
+        <f>'200314_cases_raw'!V33</f>
+        <v>5</v>
+      </c>
+      <c r="W32">
+        <f>'200314_cases_raw'!W33</f>
+        <v>10</v>
+      </c>
+      <c r="X32">
+        <f>'200314_cases_raw'!X33</f>
+        <v>22</v>
+      </c>
+      <c r="Y32">
+        <f>'200314_cases_raw'!Y33</f>
+        <v>9</v>
+      </c>
+      <c r="Z32">
+        <f>'200314_cases_raw'!Z33</f>
+        <v>20</v>
+      </c>
+      <c r="AA32">
+        <f>'200314_cases_raw'!AA33</f>
+        <v>48</v>
+      </c>
+      <c r="AB32">
+        <f>'200314_cases_raw'!AB33</f>
+        <v>8</v>
+      </c>
+      <c r="AC32">
+        <f>'200314_cases_raw'!AC33</f>
+        <v>49</v>
+      </c>
+      <c r="AD32">
+        <f>'200314_cases_raw'!AD33</f>
+        <v>18</v>
+      </c>
+      <c r="AE32">
+        <f>'200314_cases_raw'!AE33</f>
+        <v>12</v>
+      </c>
+      <c r="AF32">
+        <f>'200314_cases_raw'!AF33</f>
+        <v>17</v>
+      </c>
+      <c r="AG32">
+        <f>'200314_cases_raw'!AG33</f>
+        <v>1237</v>
+      </c>
+      <c r="AH32">
+        <f>'200314_cases_raw'!AI33</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
+        <f>'200314_cases_raw'!A34</f>
+        <v>43911</v>
+      </c>
+      <c r="B33">
+        <f>'200314_cases_raw'!B34</f>
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <f>'200314_cases_raw'!C34</f>
+        <v>232</v>
+      </c>
+      <c r="D33">
+        <f>'200314_cases_raw'!D34</f>
+        <v>28</v>
+      </c>
+      <c r="E33">
+        <f>'200314_cases_raw'!E34</f>
+        <v>55</v>
+      </c>
+      <c r="F33">
+        <f>'200314_cases_raw'!F34</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>'200314_cases_raw'!G34</f>
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <f>'200314_cases_raw'!H34</f>
+        <v>59</v>
+      </c>
+      <c r="I33">
+        <f>'200314_cases_raw'!I34</f>
+        <v>101</v>
+      </c>
+      <c r="J33">
+        <f>'200314_cases_raw'!J34</f>
+        <v>22</v>
+      </c>
+      <c r="K33">
+        <f>'200314_cases_raw'!K34</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>'200314_cases_raw'!L34</f>
+        <v>12</v>
+      </c>
+      <c r="M33">
+        <f>'200314_cases_raw'!M34</f>
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <f>'200314_cases_raw'!N34</f>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f>'200314_cases_raw'!O34</f>
+        <v>57</v>
+      </c>
+      <c r="P33">
+        <f>'200314_cases_raw'!P34</f>
+        <v>6</v>
+      </c>
+      <c r="Q33">
+        <f>'200314_cases_raw'!Q34</f>
+        <v>72</v>
+      </c>
+      <c r="R33">
+        <f>'200314_cases_raw'!R34</f>
+        <v>14</v>
+      </c>
+      <c r="S33">
+        <f>'200314_cases_raw'!S34</f>
+        <v>7</v>
+      </c>
+      <c r="T33">
+        <f>'200314_cases_raw'!T34</f>
+        <v>35</v>
+      </c>
+      <c r="U33">
+        <f>'200314_cases_raw'!U34</f>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f>'200314_cases_raw'!V34</f>
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <f>'200314_cases_raw'!W34</f>
+        <v>31</v>
+      </c>
+      <c r="X33">
+        <f>'200314_cases_raw'!X34</f>
+        <v>27</v>
+      </c>
+      <c r="Y33">
+        <f>'200314_cases_raw'!Y34</f>
+        <v>34</v>
+      </c>
+      <c r="Z33">
+        <f>'200314_cases_raw'!Z34</f>
+        <v>18</v>
+      </c>
+      <c r="AA33">
+        <f>'200314_cases_raw'!AA34</f>
+        <v>57</v>
+      </c>
+      <c r="AB33">
+        <f>'200314_cases_raw'!AB34</f>
+        <v>5</v>
+      </c>
+      <c r="AC33">
+        <f>'200314_cases_raw'!AC34</f>
+        <v>52</v>
+      </c>
+      <c r="AD33">
+        <f>'200314_cases_raw'!AD34</f>
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <f>'200314_cases_raw'!AE34</f>
+        <v>8</v>
+      </c>
+      <c r="AF33">
+        <f>'200314_cases_raw'!AF34</f>
+        <v>1</v>
+      </c>
+      <c r="AG33">
+        <f>'200314_cases_raw'!AG34</f>
+        <v>966</v>
+      </c>
+      <c r="AH33">
+        <f>'200314_cases_raw'!AI34</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2">
+        <f>'200314_cases_raw'!A35</f>
+        <v>43912</v>
+      </c>
+      <c r="B34">
+        <f>'200314_cases_raw'!B35</f>
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <f>'200314_cases_raw'!C35</f>
+        <v>249</v>
+      </c>
+      <c r="D34">
+        <f>'200314_cases_raw'!D35</f>
+        <v>36</v>
+      </c>
+      <c r="E34">
+        <f>'200314_cases_raw'!E35</f>
+        <v>60</v>
+      </c>
+      <c r="F34">
+        <f>'200314_cases_raw'!F35</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>'200314_cases_raw'!G35</f>
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <f>'200314_cases_raw'!H35</f>
+        <v>29</v>
+      </c>
+      <c r="I34">
+        <f>'200314_cases_raw'!I35</f>
+        <v>87</v>
+      </c>
+      <c r="J34">
+        <f>'200314_cases_raw'!J35</f>
+        <v>26</v>
+      </c>
+      <c r="K34">
+        <f>'200314_cases_raw'!K35</f>
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <f>'200314_cases_raw'!L35</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f>'200314_cases_raw'!M35</f>
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <f>'200314_cases_raw'!N35</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>'200314_cases_raw'!O35</f>
+        <v>38</v>
+      </c>
+      <c r="P34">
+        <f>'200314_cases_raw'!P35</f>
+        <v>19</v>
+      </c>
+      <c r="Q34">
+        <f>'200314_cases_raw'!Q35</f>
+        <v>57</v>
+      </c>
+      <c r="R34">
+        <f>'200314_cases_raw'!R35</f>
+        <v>28</v>
+      </c>
+      <c r="S34">
+        <f>'200314_cases_raw'!S35</f>
+        <v>16</v>
+      </c>
+      <c r="T34">
+        <f>'200314_cases_raw'!T35</f>
+        <v>28</v>
+      </c>
+      <c r="U34">
+        <f>'200314_cases_raw'!U35</f>
+        <v>36</v>
+      </c>
+      <c r="V34">
+        <f>'200314_cases_raw'!V35</f>
+        <v>7</v>
+      </c>
+      <c r="W34">
+        <f>'200314_cases_raw'!W35</f>
+        <v>22</v>
+      </c>
+      <c r="X34">
+        <f>'200314_cases_raw'!X35</f>
+        <v>19</v>
+      </c>
+      <c r="Y34">
+        <f>'200314_cases_raw'!Y35</f>
+        <v>33</v>
+      </c>
+      <c r="Z34">
+        <f>'200314_cases_raw'!Z35</f>
+        <v>17</v>
+      </c>
+      <c r="AA34">
+        <f>'200314_cases_raw'!AA35</f>
+        <v>42</v>
+      </c>
+      <c r="AB34">
+        <f>'200314_cases_raw'!AB35</f>
+        <v>15</v>
+      </c>
+      <c r="AC34">
+        <f>'200314_cases_raw'!AC35</f>
+        <v>84</v>
+      </c>
+      <c r="AD34">
+        <f>'200314_cases_raw'!AD35</f>
+        <v>15</v>
+      </c>
+      <c r="AE34">
+        <f>'200314_cases_raw'!AE35</f>
+        <v>8</v>
+      </c>
+      <c r="AF34">
+        <f>'200314_cases_raw'!AF35</f>
+        <v>26</v>
+      </c>
+      <c r="AG34">
+        <f>'200314_cases_raw'!AG35</f>
+        <v>1028</v>
+      </c>
+      <c r="AH34">
+        <f>'200314_cases_raw'!AI35</f>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -7843,10 +9107,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378A4F6D-F2A2-467B-9C80-10B66E4C8CB6}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7857,258 +9121,282 @@
     <col min="4" max="4" width="8.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>43881</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>132</v>
+        <v>54</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>43881</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>132</v>
+        <v>55</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>43883</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>133</v>
+        <v>52</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>43883</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>133</v>
+        <v>53</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>43891</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>134</v>
+        <v>56</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>43893</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>43895</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>136</v>
+        <v>60</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>43896</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>137</v>
+        <v>62</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>43903</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>138</v>
+        <v>148</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>43903</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="10" t="s">
-        <v>94</v>
-      </c>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
         <v>43885</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
-        <v>43893</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" t="s">
-        <v>96</v>
-      </c>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="8"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="9"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" s="8"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="9"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="8"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="9"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="8"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" s="9"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{4F77853A-9201-408D-907C-1A57C3042BAE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/raw/iran/covid_iran.xlsx
+++ b/data/raw/iran/covid_iran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy Hultgren\Documents\ARE\GPL\coronavirus_sprint\AAA_repo\gpl-covid\data\raw\iran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA3F7E-FBD9-4275-BD25-7758DAFEF5A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196A845E-77CD-4C57-AA80-8C0BBD92A5D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{B9F8E7D9-CAF8-492B-9668-8FBFA647817F}"/>
   </bookViews>
@@ -298,9 +298,6 @@
     <t>school_closure</t>
   </si>
   <si>
-    <t>travel_ban_optional</t>
-  </si>
-  <si>
     <t>no_gathering</t>
   </si>
   <si>
@@ -542,6 +539,9 @@
   </si>
   <si>
     <t>https://www.theguardian.com/world/2020/mar/13/revolutionary-guards-enforce-coronavirus-controls-iran  (Accessed 3/14/20)     https://www.nytimes.com/2020/03/17/world/middleeast/coronavirus-iran-rouhani.html (Accessed 3/30/20)</t>
+  </si>
+  <si>
+    <t>travel_ban_local_opt</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1442,7 @@
         <v>8</v>
       </c>
       <c r="AK7" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -1505,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="AK8" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -1572,7 +1572,7 @@
         <v>15</v>
       </c>
       <c r="AK9" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -1649,7 +1649,7 @@
         <v>19</v>
       </c>
       <c r="AK10" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -1732,7 +1732,7 @@
         <v>26</v>
       </c>
       <c r="AK11" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -1809,7 +1809,7 @@
         <v>34</v>
       </c>
       <c r="AK12" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -1898,7 +1898,7 @@
         <v>43</v>
       </c>
       <c r="AK13" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -1987,7 +1987,7 @@
         <v>54</v>
       </c>
       <c r="AK14" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2040,7 +2040,7 @@
         <v>54</v>
       </c>
       <c r="AK15" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2093,7 +2093,7 @@
         <v>77</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2188,7 +2188,7 @@
         <v>92</v>
       </c>
       <c r="AK17" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2291,7 +2291,7 @@
         <v>107</v>
       </c>
       <c r="AK18" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2400,7 +2400,7 @@
         <v>124</v>
       </c>
       <c r="AK19" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2509,7 +2509,7 @@
         <v>145</v>
       </c>
       <c r="AK20" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2618,7 +2618,7 @@
         <v>194</v>
       </c>
       <c r="AK21" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2721,7 +2721,7 @@
         <v>237</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2830,7 +2830,7 @@
         <v>291</v>
       </c>
       <c r="AK23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -2939,7 +2939,7 @@
         <v>354</v>
       </c>
       <c r="AK24" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3048,7 +3048,7 @@
         <v>429</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3151,7 +3151,7 @@
         <v>514</v>
       </c>
       <c r="AK26" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3254,7 +3254,7 @@
         <v>611</v>
       </c>
       <c r="AK27" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3361,7 +3361,7 @@
         <v>724</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3470,7 +3470,7 @@
         <v>853</v>
       </c>
       <c r="AK29" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3581,7 +3581,7 @@
         <v>988</v>
       </c>
       <c r="AK30" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3692,7 +3692,7 @@
         <v>1135</v>
       </c>
       <c r="AK31" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -3805,7 +3805,7 @@
         <v>1284</v>
       </c>
       <c r="AK32" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4019,7 +4019,7 @@
         <v>1556</v>
       </c>
       <c r="AK34" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.55000000000000004">
@@ -4126,12 +4126,12 @@
         <v>1685</v>
       </c>
       <c r="AK35" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41">
         <f>B$14/SUM($B$14:$AF$14)*$AG15</f>
@@ -4442,100 +4442,100 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>87</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>88</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>89</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>91</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>92</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>93</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>94</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>95</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>96</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>97</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>98</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>100</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>101</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>102</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>103</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>104</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>105</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>106</v>
       </c>
       <c r="AG1" t="s">
         <v>44</v>
@@ -9110,7 +9110,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9123,7 +9123,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>46</v>
@@ -9155,7 +9155,7 @@
         <v>54</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9163,7 +9163,7 @@
         <v>43881</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -9172,7 +9172,7 @@
         <v>55</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9189,7 +9189,7 @@
         <v>52</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9197,7 +9197,7 @@
         <v>43883</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
@@ -9206,7 +9206,7 @@
         <v>53</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9214,7 +9214,7 @@
         <v>43891</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -9223,7 +9223,7 @@
         <v>56</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9231,7 +9231,7 @@
         <v>43893</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
@@ -9240,7 +9240,7 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9257,7 +9257,7 @@
         <v>60</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9265,7 +9265,7 @@
         <v>43896</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
         <v>63</v>
@@ -9274,7 +9274,7 @@
         <v>62</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9282,16 +9282,16 @@
         <v>43903</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
       </c>
       <c r="D10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9299,16 +9299,16 @@
         <v>43903</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9316,16 +9316,16 @@
         <v>43907</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -9337,7 +9337,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9351,7 +9351,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
         <v>49</v>
@@ -9374,7 +9374,7 @@
         <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/data/raw/iran/covid_iran.xlsx
+++ b/data/raw/iran/covid_iran.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy Hultgren\Documents\ARE\GPL\coronavirus_sprint\AAA_repo\gpl-covid\data\raw\iran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianbolliger/git_repos/gpl-covid/data/raw/iran/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196A845E-77CD-4C57-AA80-8C0BBD92A5D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3206150-637D-FD49-AB7A-A926C399DE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{B9F8E7D9-CAF8-492B-9668-8FBFA647817F}"/>
+    <workbookView xWindow="36220" yWindow="1080" windowWidth="29120" windowHeight="17580" activeTab="1" xr2:uid="{B9F8E7D9-CAF8-492B-9668-8FBFA647817F}"/>
   </bookViews>
   <sheets>
     <sheet name="200314_cases_raw" sheetId="1" r:id="rId1"/>
     <sheet name="cases_cleaned--to_csv" sheetId="2" r:id="rId2"/>
-    <sheet name="200314_policies--to_csv" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,29 +69,8 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={7D323E98-4CE7-4B20-B680-8188525E77D4}</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7D323E98-4CE7-4B20-B680-8188525E77D4}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Useful overall timelines with links:
-https://www.thinkglobalhealth.org/article/updated-timeline-coronavirus
-https://www.cnbc.com/iran
-https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
   <si>
     <t>Date</t>
   </si>
@@ -229,96 +207,6 @@
     <t>new_confirmed_national</t>
   </si>
   <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>Policy type</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>https://www.pharmaceutical-technology.com/news/coronavirus-a-timeline-of-how-the-deadly-outbreak-evolved/</t>
-  </si>
-  <si>
-    <t>Locations affected</t>
-  </si>
-  <si>
-    <t>Qom, Markazi, Gilan, Ardabil, Kermanshah, Qazvin, Zanjan, Mazandaran, Golestan, Hamedan, Alborz, Semnan, Kurdistan, Tehran</t>
-  </si>
-  <si>
-    <t>As a "preventive measure", authorities ordered the closure of schools, universities and other educational centres in 14 provinces across the country from Sunday, according to state television. They include Qom, Markazi, Gilan, Ardabil, Kermanshah, Qazvin, Zanjan, Mazandaran, Golestan, Hamedan, Alborz, Semnan, Kurdistan and the capital, Tehran.</t>
-  </si>
-  <si>
-    <t>The government also announced that "all art and cinema events in halls across the country have been cancelled until the end of the week" in order to stop infections… Authorities also suspended popular football matches for 10 days and additional measures include daily cleanings of metro train cars and city buses.</t>
-  </si>
-  <si>
-    <t>Meanwhile, state media reported that authorities in Qom have shut down schools and universities in the city on Thursday.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vahabzadeh said Iran's health ministry has recommended that people limit their movement into and out of religious sites in Qom, a city located 140 kilometres (87 miles) south of the capital, Tehran. </t>
-  </si>
-  <si>
-    <t>“There were 385 new cases of infected people in the last 24 hours, increasing the total number to 978. The death toll is 54,” Jahanpur said, calling on Iranians to avoid any unnecessary trips and stay at home.</t>
-  </si>
-  <si>
-    <t>International travel ban</t>
-  </si>
-  <si>
-    <t>Widespread screening</t>
-  </si>
-  <si>
-    <t>(translated) The Administrative and Employment Organization issued a directive to the executive agencies to deal with Corona and protect the health of staff and clients, according to which it is permissible to provide electronic services to staff in the form of teleworking.  The directive, which was communicated to all executive agencies, states that devices must provide health personnel (masks, gloves, and disinfectants) to their employees.  All correspondence between the devices and the subsidiaries should be done through office automation, and the devices should also provide the ability to electronically register citizen service requests and correspondence, and provide an on-line e-mail if needed within three days. Also, this directive prohibits the holding of conferences, specialized meetings, specialized programs, and dispatches of staff for unnecessary missions, and mandatory missions must be carried out with the approval of the highest authority in the province.</t>
-  </si>
-  <si>
-    <t>Iran closed its schools and universities until early April - and limited travel between cities - as its death toll rose to 107.</t>
-  </si>
-  <si>
-    <t>https://www.nytimes.com/2020/03/03/world/middleeast/coronavirus-iran.html, https://www.cnbc.com/2020/03/01/reuters-america-update-3-irans-coronavirus-death-toll-jumps-to-54-with-978-infected.html</t>
-  </si>
-  <si>
-    <t>Health minister Namaki said Iran had begun a national plan to combat coronavirus which will start in the handful of locations most affected by the disease and expand to other parts of the country, according to the official IRNA news agency.  Families would be contacted by telephone to help identify possible cases and health teams will disinfect public spaces, he said, listing the provinces of Qom, Gilan and Isfahan as the locations where the plan would begin.</t>
-  </si>
-  <si>
-    <t>Qom, Gilan, Isfahan</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The health minister, Saeed Namaki, on Sunday announced a plan to dispatch a force of 300,000 plainclothes Basij militiamen that would go house to house to screen residents and disinfect their homes.  Iranian doctors and politicians immediately criticized the plan, saying that untrained militiamen were more likely to spread the virus than to contain it.  The latest plan announced on Thursday did not mention door-to-door screening.   </t>
-  </si>
-  <si>
-    <t>school_closure</t>
-  </si>
-  <si>
-    <t>no_gathering</t>
-  </si>
-  <si>
-    <t>work_from_home</t>
-  </si>
-  <si>
-    <t>The following policies are kept for informational purposes only</t>
-  </si>
-  <si>
-    <t>[Note: This only affects people trying to travel *out of* Iran, so won't affect the infection rate in the country.] Iran’s neighbours close borders:   – Saudi Arabia, Kuwait, Iraq, Turkey and Afghanistan imposed travel and immigration restrictions on Iran, which was the first to report deaths in the Middle East region.  – Turkey, Pakistan, Afghanistan and Armenia also closed their borders with Iran.</t>
-  </si>
-  <si>
-    <t>[This plan was cancelled. https://www.dailymail.co.uk/news/article-8082443/ANOTHER-senior-Iranian-official-dies-coronavirus.html]  On Sunday, Namaki had said that 300,000 teams, including members of the Basij militia, would be sent out to perform door-to-door coronavirus screening.  The plan sparked criticism from Iranians online about the possibility of the teams spreading, rather than stopping, infections.</t>
-  </si>
-  <si>
-    <t>Assumption based on 3/6/20 announcement</t>
-  </si>
-  <si>
-    <t>The announced high screening plan on 3/6/20 included disinfections of public places in three provinces, to be rolled out nationally.  This "lockdown" event includes national disinfections of public places. So, it is assumed that this announcement is the national rollout of the 3/6/20 pilot; therefore including more intensified screening everywhere. Media reports do not specify this, however.  (Might need Farsi speaker to know for sure. Iranian government communication has been confused.)</t>
-  </si>
-  <si>
     <t>Qom_R1</t>
   </si>
   <si>
@@ -418,30 +306,6 @@
     <t>imputation check</t>
   </si>
   <si>
-    <t>https://www.aljazeera.com/news/2020/02/iran-confirms-coronavirus-cases-200220125104907.html (Accessed 3/14/20)</t>
-  </si>
-  <si>
-    <t>https://www.aljazeera.com/news/2020/02/iran-shuts-schools-cultural-centres-coronavirus-kills-200223000740899.html  (Accessed 3/14/20)</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2020/03/01/reuters-america-update-1-irans-death-toll-from-coronavirus-jumps-to-54-with-978-infected.html  (Accessed 3/14/20)</t>
-  </si>
-  <si>
-    <t>https://www.asriran.com/fa/news/716947/%D8%A8%D8%AE%D8%B4%D9%86%D8%A7%D9%85%D9%87%E2%80%8C-%D8%A8%D9%87-%D8%AF%D8%B3%D8%AA%DA%AF%D8%A7%D9%87-%D9%87%D8%A7%DB%8C-%D8%A7%D8%AC%D8%B1%D8%A7%DB%8C%DB%8C-%D8%AF%D9%88%D8%B1%DA%A9%D8%A7%D8%B1%DB%8C-%DA%A9%D8%A7%D8%B1%DA%A9%D9%86%D8%A7%D9%86-%D8%A8%D9%84%D8%A7%D9%85%D8%A7%D9%86%D8%B9-%D8%A7%D8%B3%D8%AA  (Accessed 3/14/20)</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/news/live/world-51747782  (Accessed 3/14/20)</t>
-  </si>
-  <si>
-    <t>https://www.dailymail.co.uk/news/article-8082443/ANOTHER-senior-Iranian-official-dies-coronavirus.html  (Accessed 3/14/20)</t>
-  </si>
-  <si>
-    <t>home_isolation</t>
-  </si>
-  <si>
-    <t>testing_regime</t>
-  </si>
-  <si>
     <t>[116]</t>
   </si>
   <si>
@@ -524,31 +388,13 @@
   </si>
   <si>
     <t>[136]</t>
-  </si>
-  <si>
-    <t>religious_closure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only on 17 March—by which time Iran had tallied 16,169 cases and 988 deaths—did the government shutter Qom’s shrines, which beckon pilgrims from across Iran and abroad. </t>
-  </si>
-  <si>
-    <t>https://www.sciencemag.org/news/2020/03/iran-confronts-coronavirus-amid-battle-between-science-and-conspiracy-theories (Accessed 3/30/2020)</t>
-  </si>
-  <si>
-    <t>The Guardian: Iran’s Revolutionary Guards are to clear streets, shops and public places in the country within the next 24 hours, in a dramatic escalation of efforts to combat the spread of coronavirus.  The near-curfew follows growing exasperation among MPs that calls for Iranian citizens to stay at home had been widely ignored, as people continued to travel before the Nowruz new year holidays. Shops and offices have largely remained open.           NYT: By Monday, Mr. Rouhani appeared to have dissuaded the military from imposing strict rules. But local authorities defied him, independently closing provinces and several cities.</t>
-  </si>
-  <si>
-    <t>https://www.theguardian.com/world/2020/mar/13/revolutionary-guards-enforce-coronavirus-controls-iran  (Accessed 3/14/20)     https://www.nytimes.com/2020/03/17/world/middleeast/coronavirus-iran-rouhani.html (Accessed 3/30/20)</t>
-  </si>
-  <si>
-    <t>travel_ban_local_opt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,13 +433,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -616,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -634,18 +473,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -987,17 +817,6 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2020-03-15T08:28:38.72" personId="{4E54C47D-ED2E-4C91-92C8-794FC7B4182C}" id="{7D323E98-4CE7-4B20-B680-8188525E77D4}">
-    <text>Useful overall timelines with links:
-https://www.thinkglobalhealth.org/article/updated-timeline-coronavirus
-https://www.cnbc.com/iran
-https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Iran</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854914B6-C51A-470E-BB7C-061A50D70C35}">
   <dimension ref="A1:AK42"/>
@@ -1006,65 +825,65 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13" t="s">
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13" t="s">
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13" t="s">
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13" t="s">
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="13"/>
+      <c r="AJ1" s="8"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13"/>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1174,43 +993,43 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>43880</v>
       </c>
-      <c r="B3" s="11">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
       <c r="AG3" s="4">
         <v>2</v>
       </c>
@@ -1223,100 +1042,100 @@
       <c r="AJ3" s="4">
         <v>2</v>
       </c>
-      <c r="AK3" s="11"/>
+      <c r="AK3" s="7"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>43881</v>
       </c>
-      <c r="B4" s="11">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11">
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7">
         <v>1</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
       <c r="AG4" s="4">
         <v>3</v>
       </c>
       <c r="AH4" s="4">
         <v>5</v>
       </c>
-      <c r="AI4" s="11"/>
+      <c r="AI4" s="7"/>
       <c r="AJ4" s="4">
         <v>2</v>
       </c>
-      <c r="AK4" s="11"/>
+      <c r="AK4" s="7"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>43882</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>7</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11">
-        <v>2</v>
-      </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>2</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
       <c r="AG5" s="4">
         <v>13</v>
       </c>
@@ -1329,47 +1148,47 @@
       <c r="AJ5" s="4">
         <v>4</v>
       </c>
-      <c r="AK5" s="11"/>
+      <c r="AK5" s="7"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43883</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>8</v>
       </c>
-      <c r="C6" s="11">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
       <c r="AG6" s="4">
         <v>10</v>
       </c>
@@ -1382,53 +1201,53 @@
       <c r="AJ6" s="4">
         <v>6</v>
       </c>
-      <c r="AK6" s="11"/>
+      <c r="AK6" s="7"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>43884</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>7</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11">
-        <v>2</v>
-      </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>2</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7">
         <v>1</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
       <c r="AG7" s="4">
         <v>15</v>
       </c>
@@ -1442,56 +1261,56 @@
         <v>8</v>
       </c>
       <c r="AK7" s="6" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>43885</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>8</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11">
-        <v>2</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11">
-        <v>2</v>
-      </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11">
-        <v>2</v>
-      </c>
-      <c r="V8" s="11">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>2</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7">
+        <v>2</v>
+      </c>
+      <c r="V8" s="7">
         <v>1</v>
       </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
       <c r="AG8" s="4">
         <v>18</v>
       </c>
@@ -1505,60 +1324,60 @@
         <v>12</v>
       </c>
       <c r="AK8" s="6" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>43886</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>16</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <v>8</v>
       </c>
-      <c r="D9" s="11">
-        <v>2</v>
-      </c>
-      <c r="E9" s="11">
-        <v>2</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11">
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="7">
         <v>1</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11">
-        <v>2</v>
-      </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>2</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7">
         <v>1</v>
       </c>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
       <c r="AG9" s="4">
         <v>34</v>
       </c>
@@ -1572,70 +1391,70 @@
         <v>15</v>
       </c>
       <c r="AK9" s="6" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43887</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>15</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11">
-        <v>2</v>
-      </c>
-      <c r="K10" s="11">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7">
+        <v>2</v>
+      </c>
+      <c r="K10" s="7">
         <v>1</v>
       </c>
-      <c r="L10" s="11">
-        <v>2</v>
-      </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11">
+      <c r="L10" s="7">
+        <v>2</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
         <v>1</v>
       </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7">
         <v>1</v>
       </c>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11">
+      <c r="V10" s="7"/>
+      <c r="W10" s="7">
         <v>3</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="7">
         <v>1</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="7">
         <v>1</v>
       </c>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
       <c r="AG10" s="4">
         <v>44</v>
       </c>
@@ -1649,76 +1468,76 @@
         <v>19</v>
       </c>
       <c r="AK10" s="6" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>43888</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <v>38</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="7">
         <v>7</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <v>3</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
         <v>8</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
         <v>23</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="7">
         <v>5</v>
       </c>
-      <c r="Q11" s="11">
-        <v>2</v>
-      </c>
-      <c r="R11" s="11">
+      <c r="Q11" s="7">
+        <v>2</v>
+      </c>
+      <c r="R11" s="7">
         <v>1</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="7">
         <v>1</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11">
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7">
         <v>1</v>
       </c>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="11">
+      <c r="W11" s="7"/>
+      <c r="X11" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="7">
         <v>3</v>
       </c>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11">
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7">
         <v>1</v>
       </c>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11">
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7">
         <v>1</v>
       </c>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
       <c r="AG11" s="4">
         <v>106</v>
       </c>
@@ -1732,70 +1551,70 @@
         <v>26</v>
       </c>
       <c r="AK11" s="6" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>43889</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="7">
         <v>16</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="7">
         <v>64</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="7">
         <v>9</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="7">
         <v>3</v>
       </c>
-      <c r="F12" s="11">
-        <v>2</v>
-      </c>
-      <c r="G12" s="11">
-        <v>2</v>
-      </c>
-      <c r="H12" s="11">
-        <v>2</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
         <v>10</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
         <v>25</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="7">
         <v>1</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="7">
         <v>4</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11">
-        <v>2</v>
-      </c>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11">
+      <c r="R12" s="7"/>
+      <c r="S12" s="7">
+        <v>2</v>
+      </c>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7">
         <v>3</v>
       </c>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
       <c r="AG12" s="4">
         <v>143</v>
       </c>
@@ -1809,82 +1628,82 @@
         <v>34</v>
       </c>
       <c r="AK12" s="6" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>43890</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="7">
         <v>21</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
         <v>52</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="7">
         <v>12</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="7">
         <v>8</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="7">
         <v>4</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="7">
         <v>22</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="7">
         <v>12</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="7">
         <v>8</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
         <v>17</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="7">
         <v>3</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="7">
         <v>6</v>
       </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11">
+      <c r="R13" s="7"/>
+      <c r="S13" s="7">
         <v>5</v>
       </c>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11">
+      <c r="T13" s="7"/>
+      <c r="U13" s="7">
         <v>18</v>
       </c>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11">
+      <c r="V13" s="7"/>
+      <c r="W13" s="7">
         <v>4</v>
       </c>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11">
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7">
         <v>1</v>
       </c>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11">
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7">
         <v>1</v>
       </c>
-      <c r="AC13" s="11">
+      <c r="AC13" s="7">
         <v>4</v>
       </c>
-      <c r="AD13" s="11">
+      <c r="AD13" s="7">
         <v>1</v>
       </c>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
       <c r="AG13" s="4">
         <v>205</v>
       </c>
@@ -1898,82 +1717,82 @@
         <v>43</v>
       </c>
       <c r="AK13" s="6" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43891</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="7">
         <v>30</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="7">
         <v>170</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="7">
         <v>11</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="7">
         <v>31</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="7">
         <v>3</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
         <v>13</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="7">
         <v>8</v>
       </c>
-      <c r="K14" s="11">
-        <v>2</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11">
+      <c r="K14" s="7">
+        <v>2</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
         <v>28</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11">
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7">
         <v>44</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="7">
         <v>3</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W14" s="7">
         <v>9</v>
       </c>
-      <c r="X14" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="11">
+      <c r="X14" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="7">
         <v>8</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z14" s="7">
         <v>1</v>
       </c>
-      <c r="AA14" s="11">
+      <c r="AA14" s="7">
         <v>17</v>
       </c>
-      <c r="AB14" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE14" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="11"/>
+      <c r="AB14" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="7"/>
       <c r="AG14" s="4">
         <v>385</v>
       </c>
@@ -1987,46 +1806,46 @@
         <v>54</v>
       </c>
       <c r="AK14" s="6" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>43892</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
       <c r="AG15" s="4">
         <v>523</v>
       </c>
@@ -2040,46 +1859,46 @@
         <v>54</v>
       </c>
       <c r="AK15" s="6" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>43893</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
       <c r="AG16" s="4">
         <v>835</v>
       </c>
@@ -2093,86 +1912,86 @@
         <v>77</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>43894</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="7">
         <v>101</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="7">
         <v>253</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="7">
         <v>9</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="7">
         <v>19</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="7">
         <v>8</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="7">
         <v>9</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="7">
         <v>25</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7">
         <v>14</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11">
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7">
         <v>1</v>
       </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11">
+      <c r="N17" s="7"/>
+      <c r="O17" s="7">
         <v>35</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11">
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7">
         <v>9</v>
       </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11">
+      <c r="R17" s="7"/>
+      <c r="S17" s="7">
         <v>4</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="7">
         <v>6</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U17" s="7">
         <v>8</v>
       </c>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11">
+      <c r="V17" s="7"/>
+      <c r="W17" s="7">
         <v>27</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X17" s="7">
         <v>15</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Y17" s="7">
         <v>5</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z17" s="7">
         <v>7</v>
       </c>
-      <c r="AA17" s="11">
+      <c r="AA17" s="7">
         <v>8</v>
       </c>
-      <c r="AB17" s="11">
+      <c r="AB17" s="7">
         <v>8</v>
       </c>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11">
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7">
         <v>14</v>
       </c>
-      <c r="AF17" s="11">
+      <c r="AF17" s="7">
         <v>1</v>
       </c>
       <c r="AG17" s="4">
@@ -2188,94 +2007,94 @@
         <v>92</v>
       </c>
       <c r="AK17" s="5" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43895</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="7">
         <v>32</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="7">
         <v>56</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="7">
         <v>50</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="7">
         <v>61</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="7">
         <v>22</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="7">
         <v>4</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="7">
         <v>31</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="7">
         <v>118</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="7">
         <v>19</v>
       </c>
-      <c r="K18" s="11">
-        <v>2</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11">
+      <c r="K18" s="7">
+        <v>2</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7">
         <v>8</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="7">
         <v>3</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="7">
         <v>80</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="7">
         <v>17</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="7">
         <v>10</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="7">
         <v>5</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="7">
         <v>6</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="7">
         <v>7</v>
       </c>
-      <c r="U18" s="11">
+      <c r="U18" s="7">
         <v>31</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18" s="7">
         <v>6</v>
       </c>
-      <c r="W18" s="11">
+      <c r="W18" s="7">
         <v>1</v>
       </c>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11">
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7">
         <v>11</v>
       </c>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11">
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7">
         <v>53</v>
       </c>
-      <c r="AB18" s="11">
+      <c r="AB18" s="7">
         <v>5</v>
       </c>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11">
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7">
         <v>9</v>
       </c>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11">
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7">
         <v>2</v>
       </c>
       <c r="AG18" s="4">
@@ -2291,100 +2110,100 @@
         <v>107</v>
       </c>
       <c r="AK18" s="5" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43896</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="7">
         <v>137</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="7">
         <v>61</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="7">
         <v>180</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="7">
         <v>129</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="7">
         <v>54</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="7">
         <v>67</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="7">
         <v>65</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="7">
         <v>150</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="7">
         <v>13</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="7">
         <v>6</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="7">
         <v>4</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="7">
         <v>5</v>
       </c>
-      <c r="N19" s="11">
-        <v>2</v>
-      </c>
-      <c r="O19" s="11">
+      <c r="N19" s="7">
+        <v>2</v>
+      </c>
+      <c r="O19" s="7">
         <v>91</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="7">
         <v>11</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="7">
         <v>10</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="7">
         <v>1</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="7">
         <v>24</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="7">
         <v>35</v>
       </c>
-      <c r="U19" s="11">
+      <c r="U19" s="7">
         <v>48</v>
       </c>
-      <c r="V19" s="11">
+      <c r="V19" s="7">
         <v>7</v>
       </c>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11">
+      <c r="W19" s="7"/>
+      <c r="X19" s="7">
         <v>5</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="Y19" s="7">
         <v>50</v>
       </c>
-      <c r="Z19" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="11">
+      <c r="Z19" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="7">
         <v>50</v>
       </c>
-      <c r="AD19" s="11">
+      <c r="AD19" s="7">
         <v>3</v>
       </c>
-      <c r="AE19" s="11">
+      <c r="AE19" s="7">
         <v>7</v>
       </c>
-      <c r="AF19" s="11">
+      <c r="AF19" s="7">
         <v>12</v>
       </c>
       <c r="AG19" s="4">
@@ -2400,100 +2219,100 @@
         <v>124</v>
       </c>
       <c r="AK19" s="5" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>43897</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="7">
         <v>145</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="7">
         <v>126</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="7">
         <v>305</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="7">
         <v>3</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="7">
         <v>24</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="7">
         <v>58</v>
       </c>
-      <c r="H20" s="11">
-        <v>2</v>
-      </c>
-      <c r="I20" s="11">
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
         <v>96</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="7">
         <v>14</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="7">
         <v>11</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11">
-        <v>2</v>
-      </c>
-      <c r="N20" s="11">
+      <c r="L20" s="7"/>
+      <c r="M20" s="7">
+        <v>2</v>
+      </c>
+      <c r="N20" s="7">
         <v>3</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="7">
         <v>70</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="7">
         <v>1</v>
       </c>
-      <c r="Q20" s="11">
-        <v>2</v>
-      </c>
-      <c r="R20" s="11">
+      <c r="Q20" s="7">
+        <v>2</v>
+      </c>
+      <c r="R20" s="7">
         <v>22</v>
       </c>
-      <c r="S20" s="11">
-        <v>2</v>
-      </c>
-      <c r="T20" s="11">
-        <v>2</v>
-      </c>
-      <c r="U20" s="11">
+      <c r="S20" s="7">
+        <v>2</v>
+      </c>
+      <c r="T20" s="7">
+        <v>2</v>
+      </c>
+      <c r="U20" s="7">
         <v>37</v>
       </c>
-      <c r="V20" s="11">
+      <c r="V20" s="7">
         <v>11</v>
       </c>
-      <c r="W20" s="11">
+      <c r="W20" s="7">
         <v>1</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X20" s="7">
         <v>4</v>
       </c>
-      <c r="Y20" s="11">
+      <c r="Y20" s="7">
         <v>27</v>
       </c>
-      <c r="Z20" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA20" s="11">
+      <c r="Z20" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="7">
         <v>46</v>
       </c>
-      <c r="AB20" s="11">
+      <c r="AB20" s="7">
         <v>13</v>
       </c>
-      <c r="AC20" s="11">
+      <c r="AC20" s="7">
         <v>24</v>
       </c>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11">
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7">
         <v>15</v>
       </c>
-      <c r="AF20" s="11">
+      <c r="AF20" s="7">
         <v>8</v>
       </c>
       <c r="AG20" s="4">
@@ -2509,100 +2328,100 @@
         <v>145</v>
       </c>
       <c r="AK20" s="5" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>43898</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="7">
         <v>17</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="7">
         <v>266</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="7">
         <v>14</v>
       </c>
-      <c r="E21" s="11">
-        <v>2</v>
-      </c>
-      <c r="F21" s="11">
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7">
         <v>37</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="7">
         <v>13</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="7">
         <v>29</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="7">
         <v>80</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="7">
         <v>9</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="7">
         <v>5</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="7">
         <v>3</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="7">
         <v>5</v>
       </c>
-      <c r="N21" s="11">
-        <v>2</v>
-      </c>
-      <c r="O21" s="11">
-        <v>2</v>
-      </c>
-      <c r="P21" s="11">
+      <c r="N21" s="7">
+        <v>2</v>
+      </c>
+      <c r="O21" s="7">
+        <v>2</v>
+      </c>
+      <c r="P21" s="7">
         <v>9</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="7">
         <v>30</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="7">
         <v>7</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S21" s="7">
         <v>19</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="7">
         <v>1</v>
       </c>
-      <c r="U21" s="11">
+      <c r="U21" s="7">
         <v>70</v>
       </c>
-      <c r="V21" s="11">
+      <c r="V21" s="7">
         <v>26</v>
       </c>
-      <c r="W21" s="11">
+      <c r="W21" s="7">
         <v>5</v>
       </c>
-      <c r="X21" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="11">
+      <c r="X21" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="7">
         <v>37</v>
       </c>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11">
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7">
         <v>19</v>
       </c>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11">
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7">
         <v>6</v>
       </c>
-      <c r="AD21" s="11">
+      <c r="AD21" s="7">
         <v>26</v>
       </c>
-      <c r="AE21" s="11">
+      <c r="AE21" s="7">
         <v>1</v>
       </c>
-      <c r="AF21" s="11">
+      <c r="AF21" s="7">
         <v>1</v>
       </c>
       <c r="AG21" s="4">
@@ -2618,94 +2437,94 @@
         <v>194</v>
       </c>
       <c r="AK21" s="5" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43899</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="7">
         <v>27</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="7">
         <v>140</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="7">
         <v>13</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7">
         <v>45</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7">
         <v>40</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="7">
         <v>37</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="7">
         <v>29</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="7">
         <v>17</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11">
+      <c r="L22" s="7"/>
+      <c r="M22" s="7">
         <v>5</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="7">
         <v>1</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="7">
         <v>28</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="7">
         <v>22</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="7">
         <v>22</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="7">
         <v>29</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S22" s="7">
         <v>3</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="7">
         <v>15</v>
       </c>
-      <c r="U22" s="11">
+      <c r="U22" s="7">
         <v>54</v>
       </c>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11">
+      <c r="V22" s="7"/>
+      <c r="W22" s="7">
         <v>4</v>
       </c>
-      <c r="X22" s="11">
+      <c r="X22" s="7">
         <v>11</v>
       </c>
-      <c r="Y22" s="11">
+      <c r="Y22" s="7">
         <v>7</v>
       </c>
-      <c r="Z22" s="11">
+      <c r="Z22" s="7">
         <v>16</v>
       </c>
-      <c r="AA22" s="11">
+      <c r="AA22" s="7">
         <v>29</v>
       </c>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11">
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7">
         <v>3</v>
       </c>
-      <c r="AD22" s="11">
+      <c r="AD22" s="7">
         <v>-7</v>
       </c>
-      <c r="AE22" s="11">
+      <c r="AE22" s="7">
         <v>-5</v>
       </c>
-      <c r="AF22" s="11">
+      <c r="AF22" s="7">
         <v>10</v>
       </c>
       <c r="AG22" s="4">
@@ -2721,102 +2540,102 @@
         <v>237</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>43900</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="7">
         <v>39</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="7">
         <v>169</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="7">
         <v>253</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="7">
         <v>32</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="7">
         <v>4</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="7">
         <v>10</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="7">
         <v>17</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="7">
         <v>18</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="7">
         <v>17</v>
       </c>
-      <c r="L23" s="11">
-        <v>2</v>
-      </c>
-      <c r="M23" s="11">
+      <c r="L23" s="7">
+        <v>2</v>
+      </c>
+      <c r="M23" s="7">
         <v>11</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="7">
         <v>7</v>
       </c>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11">
+      <c r="O23" s="7"/>
+      <c r="P23" s="7">
         <v>19</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q23" s="7">
         <v>17</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="7">
         <v>4</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S23" s="7">
         <v>12</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="7">
         <v>11</v>
       </c>
-      <c r="U23" s="11">
+      <c r="U23" s="7">
         <v>27</v>
       </c>
-      <c r="V23" s="11">
+      <c r="V23" s="7">
         <v>17</v>
       </c>
-      <c r="W23" s="11">
+      <c r="W23" s="7">
         <v>37</v>
       </c>
-      <c r="X23" s="11">
+      <c r="X23" s="7">
         <v>7</v>
       </c>
-      <c r="Y23" s="11">
+      <c r="Y23" s="7">
         <v>25</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="Z23" s="7">
         <v>25</v>
       </c>
-      <c r="AA23" s="11">
+      <c r="AA23" s="7">
         <v>39</v>
       </c>
-      <c r="AB23" s="11">
+      <c r="AB23" s="7">
         <v>6</v>
       </c>
-      <c r="AC23" s="11">
+      <c r="AC23" s="7">
         <v>37</v>
       </c>
-      <c r="AD23" s="11">
+      <c r="AD23" s="7">
         <v>14</v>
       </c>
-      <c r="AE23" s="11">
+      <c r="AE23" s="7">
         <v>4</v>
       </c>
-      <c r="AF23" s="11"/>
+      <c r="AF23" s="7"/>
       <c r="AG23" s="4">
         <v>881</v>
       </c>
@@ -2830,100 +2649,100 @@
         <v>291</v>
       </c>
       <c r="AK23" s="5" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>43901</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="7">
         <v>53</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="7">
         <v>256</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="7">
         <v>32</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="7">
         <v>45</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="7">
         <v>63</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="7">
         <v>9</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="7">
         <v>27</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="7">
         <v>170</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="7">
         <v>19</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="7">
         <v>10</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11">
+      <c r="L24" s="7"/>
+      <c r="M24" s="7">
         <v>1</v>
       </c>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11">
+      <c r="N24" s="7"/>
+      <c r="O24" s="7">
         <v>5</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="7">
         <v>1</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="7">
         <v>29</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="7">
         <v>27</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S24" s="7">
         <v>6</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T24" s="7">
         <v>22</v>
       </c>
-      <c r="U24" s="11">
+      <c r="U24" s="7">
         <v>31</v>
       </c>
-      <c r="V24" s="11">
+      <c r="V24" s="7">
         <v>7</v>
       </c>
-      <c r="W24" s="11">
+      <c r="W24" s="7">
         <v>17</v>
       </c>
-      <c r="X24" s="11">
+      <c r="X24" s="7">
         <v>8</v>
       </c>
-      <c r="Y24" s="11">
+      <c r="Y24" s="7">
         <v>9</v>
       </c>
-      <c r="Z24" s="11">
+      <c r="Z24" s="7">
         <v>6</v>
       </c>
-      <c r="AA24" s="11">
+      <c r="AA24" s="7">
         <v>34</v>
       </c>
-      <c r="AB24" s="11">
+      <c r="AB24" s="7">
         <v>4</v>
       </c>
-      <c r="AC24" s="11">
+      <c r="AC24" s="7">
         <v>23</v>
       </c>
-      <c r="AD24" s="11">
+      <c r="AD24" s="7">
         <v>15</v>
       </c>
-      <c r="AE24" s="11">
+      <c r="AE24" s="7">
         <v>18</v>
       </c>
-      <c r="AF24" s="11">
+      <c r="AF24" s="7">
         <v>11</v>
       </c>
       <c r="AG24" s="4">
@@ -2939,102 +2758,102 @@
         <v>354</v>
       </c>
       <c r="AK24" s="5" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>43902</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="7">
         <v>42</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="7">
         <v>303</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="7">
         <v>79</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="7">
         <v>74</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="7">
         <v>40</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="7">
         <v>25</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="7">
         <v>42</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="7">
         <v>4</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="7">
         <v>29</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11">
+      <c r="K25" s="7"/>
+      <c r="L25" s="7">
         <v>15</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="7">
         <v>11</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="7">
         <v>3</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="7">
         <v>84</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P25" s="7">
         <v>14</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25" s="7">
         <v>7</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R25" s="7">
         <v>19</v>
       </c>
-      <c r="S25" s="11">
+      <c r="S25" s="7">
         <v>9</v>
       </c>
-      <c r="T25" s="11">
+      <c r="T25" s="7">
         <v>17</v>
       </c>
-      <c r="U25" s="11">
+      <c r="U25" s="7">
         <v>88</v>
       </c>
-      <c r="V25" s="11">
+      <c r="V25" s="7">
         <v>12</v>
       </c>
-      <c r="W25" s="11">
+      <c r="W25" s="7">
         <v>31</v>
       </c>
-      <c r="X25" s="11">
+      <c r="X25" s="7">
         <v>20</v>
       </c>
-      <c r="Y25" s="11">
+      <c r="Y25" s="7">
         <v>25</v>
       </c>
-      <c r="Z25" s="11">
+      <c r="Z25" s="7">
         <v>7</v>
       </c>
-      <c r="AA25" s="11">
+      <c r="AA25" s="7">
         <v>29</v>
       </c>
-      <c r="AB25" s="11">
+      <c r="AB25" s="7">
         <v>6</v>
       </c>
-      <c r="AC25" s="11">
+      <c r="AC25" s="7">
         <v>21</v>
       </c>
-      <c r="AD25" s="11">
+      <c r="AD25" s="7">
         <v>12</v>
       </c>
-      <c r="AE25" s="11">
+      <c r="AE25" s="7">
         <v>7</v>
       </c>
-      <c r="AF25" s="11"/>
+      <c r="AF25" s="7"/>
       <c r="AG25" s="4">
         <v>1075</v>
       </c>
@@ -3048,96 +2867,96 @@
         <v>429</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>43903</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="7">
         <v>42</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="7">
         <v>303</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="7">
         <v>192</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="7">
         <v>6</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="7">
         <v>38</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="7">
         <v>21</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="7">
         <v>12</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="7">
         <v>110</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="7">
         <v>33</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="7">
         <v>4</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11">
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7">
         <v>71</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="7">
         <v>15</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26" s="7">
         <v>97</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R26" s="7">
         <v>25</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S26" s="7">
         <v>9</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T26" s="7">
         <v>20</v>
       </c>
-      <c r="U26" s="11">
+      <c r="U26" s="7">
         <v>48</v>
       </c>
-      <c r="V26" s="11">
+      <c r="V26" s="7">
         <v>10</v>
       </c>
-      <c r="W26" s="11">
+      <c r="W26" s="7">
         <v>15</v>
       </c>
-      <c r="X26" s="11">
+      <c r="X26" s="7">
         <v>15</v>
       </c>
-      <c r="Y26" s="11">
+      <c r="Y26" s="7">
         <v>25</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="Z26" s="7">
         <v>8</v>
       </c>
-      <c r="AA26" s="11">
+      <c r="AA26" s="7">
         <v>110</v>
       </c>
-      <c r="AB26" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC26" s="11">
+      <c r="AB26" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="7">
         <v>46</v>
       </c>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11">
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7">
         <v>12</v>
       </c>
-      <c r="AF26" s="11"/>
+      <c r="AF26" s="7"/>
       <c r="AG26" s="4">
         <v>1289</v>
       </c>
@@ -3151,94 +2970,94 @@
         <v>514</v>
       </c>
       <c r="AK26" s="5" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>43904</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="7">
         <v>32</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="7">
         <v>347</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="7">
         <v>17</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="7">
         <v>134</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="7">
         <v>47</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7">
         <v>47</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="7">
         <v>155</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="7">
         <v>11</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11">
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7">
         <v>7</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="7">
         <v>113</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P27" s="7">
         <v>33</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q27" s="7">
         <v>59</v>
       </c>
-      <c r="R27" s="11">
+      <c r="R27" s="7">
         <v>31</v>
       </c>
-      <c r="S27" s="11">
+      <c r="S27" s="7">
         <v>5</v>
       </c>
-      <c r="T27" s="11">
+      <c r="T27" s="7">
         <v>31</v>
       </c>
-      <c r="U27" s="11">
+      <c r="U27" s="7">
         <v>115</v>
       </c>
-      <c r="V27" s="11">
+      <c r="V27" s="7">
         <v>7</v>
       </c>
-      <c r="W27" s="11">
+      <c r="W27" s="7">
         <v>48</v>
       </c>
-      <c r="X27" s="11">
+      <c r="X27" s="7">
         <v>8</v>
       </c>
-      <c r="Y27" s="11">
-        <v>2</v>
-      </c>
-      <c r="Z27" s="11">
+      <c r="Y27" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="7">
         <v>6</v>
       </c>
-      <c r="AA27" s="11">
+      <c r="AA27" s="7">
         <v>30</v>
       </c>
-      <c r="AB27" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC27" s="11">
+      <c r="AB27" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="7">
         <v>73</v>
       </c>
-      <c r="AD27" s="11">
+      <c r="AD27" s="7">
         <v>4</v>
       </c>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11">
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7">
         <v>1</v>
       </c>
       <c r="AG27" s="4">
@@ -3254,98 +3073,98 @@
         <v>611</v>
       </c>
       <c r="AK27" s="5" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>43905</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="7">
         <v>84</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="7">
         <v>251</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="7">
         <v>72</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="7">
         <v>67</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="7">
         <v>41</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="7">
         <v>25</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="7">
         <v>22</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="7">
         <v>126</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="7">
         <v>9</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="7">
         <v>7</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="7">
         <v>1</v>
       </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11">
+      <c r="M28" s="7"/>
+      <c r="N28" s="7">
         <v>6</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="7">
         <v>43</v>
       </c>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11">
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7">
         <v>36</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R28" s="7">
         <v>18</v>
       </c>
-      <c r="S28" s="11">
+      <c r="S28" s="7">
         <v>27</v>
       </c>
-      <c r="T28" s="11">
+      <c r="T28" s="7">
         <v>32</v>
       </c>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11">
+      <c r="U28" s="7"/>
+      <c r="V28" s="7">
         <v>11</v>
       </c>
-      <c r="W28" s="11">
+      <c r="W28" s="7">
         <v>32</v>
       </c>
-      <c r="X28" s="11">
+      <c r="X28" s="7">
         <v>13</v>
       </c>
-      <c r="Y28" s="11">
+      <c r="Y28" s="7">
         <v>52</v>
       </c>
-      <c r="Z28" s="11">
+      <c r="Z28" s="7">
         <v>18</v>
       </c>
-      <c r="AA28" s="11">
+      <c r="AA28" s="7">
         <v>143</v>
       </c>
-      <c r="AB28" s="11">
+      <c r="AB28" s="7">
         <v>6</v>
       </c>
-      <c r="AC28" s="11">
+      <c r="AC28" s="7">
         <v>36</v>
       </c>
-      <c r="AD28" s="11">
+      <c r="AD28" s="7">
         <v>18</v>
       </c>
-      <c r="AE28" s="11">
+      <c r="AE28" s="7">
         <v>7</v>
       </c>
-      <c r="AF28" s="11">
+      <c r="AF28" s="7">
         <v>6</v>
       </c>
       <c r="AG28" s="4">
@@ -3361,100 +3180,100 @@
         <v>724</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>43906</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="7">
         <v>19</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="7">
         <v>200</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="7">
         <v>96</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="7">
         <v>49</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="7">
         <v>34</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="7">
         <v>42</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="7">
         <v>40</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="7">
         <v>118</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="7">
         <v>43</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="7">
         <v>16</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="7">
         <v>5</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="7">
         <v>3</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="7">
         <v>4</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="7">
         <v>18</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P29" s="7">
         <v>30</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="7">
         <v>35</v>
       </c>
-      <c r="R29" s="11">
+      <c r="R29" s="7">
         <v>31</v>
       </c>
-      <c r="S29" s="11">
+      <c r="S29" s="7">
         <v>31</v>
       </c>
-      <c r="T29" s="11">
+      <c r="T29" s="7">
         <v>15</v>
       </c>
-      <c r="U29" s="11">
+      <c r="U29" s="7">
         <v>14</v>
       </c>
-      <c r="V29" s="11">
+      <c r="V29" s="7">
         <v>12</v>
       </c>
-      <c r="W29" s="11">
+      <c r="W29" s="7">
         <v>53</v>
       </c>
-      <c r="X29" s="11">
+      <c r="X29" s="7">
         <v>16</v>
       </c>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11">
-        <v>2</v>
-      </c>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11">
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7">
         <v>11</v>
       </c>
-      <c r="AC29" s="11">
+      <c r="AC29" s="7">
         <v>51</v>
       </c>
-      <c r="AD29" s="11">
+      <c r="AD29" s="7">
         <v>7</v>
       </c>
-      <c r="AE29" s="11">
+      <c r="AE29" s="7">
         <v>13</v>
       </c>
-      <c r="AF29" s="11">
+      <c r="AF29" s="7">
         <v>45</v>
       </c>
       <c r="AG29" s="4">
@@ -3470,102 +3289,102 @@
         <v>853</v>
       </c>
       <c r="AK29" s="5" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>43907</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="7">
         <v>29</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="7">
         <v>273</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="7">
         <v>59</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="7">
         <v>116</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="7">
         <v>33</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="7">
         <v>30</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="7">
         <v>26</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="7">
         <v>75</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="7">
         <v>31</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="7">
         <v>6</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11">
-        <v>2</v>
-      </c>
-      <c r="N30" s="11">
+      <c r="L30" s="7"/>
+      <c r="M30" s="7">
+        <v>2</v>
+      </c>
+      <c r="N30" s="7">
         <v>4</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="7">
         <v>45</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="7">
         <v>19</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q30" s="7">
         <v>78</v>
       </c>
-      <c r="R30" s="11">
+      <c r="R30" s="7">
         <v>34</v>
       </c>
-      <c r="S30" s="11">
-        <v>2</v>
-      </c>
-      <c r="T30" s="11">
+      <c r="S30" s="7">
+        <v>2</v>
+      </c>
+      <c r="T30" s="7">
         <v>25</v>
       </c>
-      <c r="U30" s="11">
+      <c r="U30" s="7">
         <v>47</v>
       </c>
-      <c r="V30" s="11">
+      <c r="V30" s="7">
         <v>6</v>
       </c>
-      <c r="W30" s="11">
+      <c r="W30" s="7">
         <v>25</v>
       </c>
-      <c r="X30" s="11">
+      <c r="X30" s="7">
         <v>14</v>
       </c>
-      <c r="Y30" s="11">
+      <c r="Y30" s="7">
         <v>35</v>
       </c>
-      <c r="Z30" s="11">
+      <c r="Z30" s="7">
         <v>7</v>
       </c>
-      <c r="AA30" s="11">
+      <c r="AA30" s="7">
         <v>63</v>
       </c>
-      <c r="AB30" s="11">
+      <c r="AB30" s="7">
         <v>11</v>
       </c>
-      <c r="AC30" s="11">
+      <c r="AC30" s="7">
         <v>49</v>
       </c>
-      <c r="AD30" s="11">
+      <c r="AD30" s="7">
         <v>12</v>
       </c>
-      <c r="AE30" s="11">
+      <c r="AE30" s="7">
         <v>19</v>
       </c>
-      <c r="AF30" s="11">
+      <c r="AF30" s="7">
         <v>3</v>
       </c>
       <c r="AG30" s="4">
@@ -3581,104 +3400,104 @@
         <v>988</v>
       </c>
       <c r="AK30" s="6" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>43908</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="7">
         <v>22</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="7">
         <v>213</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="7">
         <v>61</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="7">
         <v>76</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="7">
         <v>60</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="7">
         <v>20</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="7">
         <v>53</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="7">
         <v>162</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="7">
         <v>60</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="7">
         <v>12</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="7">
         <v>13</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="7">
         <v>4</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="7">
         <v>4</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O31" s="7">
         <v>21</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="7">
         <v>10</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31" s="7">
         <v>84</v>
       </c>
-      <c r="R31" s="11">
+      <c r="R31" s="7">
         <v>42</v>
       </c>
-      <c r="S31" s="11">
+      <c r="S31" s="7">
         <v>22</v>
       </c>
-      <c r="T31" s="11">
+      <c r="T31" s="7">
         <v>20</v>
       </c>
-      <c r="U31" s="11">
+      <c r="U31" s="7">
         <v>23</v>
       </c>
-      <c r="V31" s="11">
+      <c r="V31" s="7">
         <v>13</v>
       </c>
-      <c r="W31" s="11">
+      <c r="W31" s="7">
         <v>28</v>
       </c>
-      <c r="X31" s="11">
+      <c r="X31" s="7">
         <v>7</v>
       </c>
-      <c r="Y31" s="11">
+      <c r="Y31" s="7">
         <v>39</v>
       </c>
-      <c r="Z31" s="11">
+      <c r="Z31" s="7">
         <v>10</v>
       </c>
-      <c r="AA31" s="11">
+      <c r="AA31" s="7">
         <v>30</v>
       </c>
-      <c r="AB31" s="11">
+      <c r="AB31" s="7">
         <v>6</v>
       </c>
-      <c r="AC31" s="11">
+      <c r="AC31" s="7">
         <v>45</v>
       </c>
-      <c r="AD31" s="11">
+      <c r="AD31" s="7">
         <v>21</v>
       </c>
-      <c r="AE31" s="11">
+      <c r="AE31" s="7">
         <v>11</v>
       </c>
-      <c r="AF31" s="11"/>
+      <c r="AF31" s="7"/>
       <c r="AG31" s="4">
         <v>1192</v>
       </c>
@@ -3692,104 +3511,104 @@
         <v>1135</v>
       </c>
       <c r="AK31" s="6" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>43909</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="7">
         <v>31</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="7">
         <v>137</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="7">
         <v>58</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="7">
         <v>61</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="7">
         <v>16</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="7">
         <v>9</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="7">
         <v>47</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="7">
         <v>108</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="7">
         <v>21</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="7">
         <v>5</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="7">
         <v>15</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="7">
         <v>3</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="7">
         <v>8</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O32" s="7">
         <v>73</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32" s="7">
         <v>16</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q32" s="7">
         <v>58</v>
       </c>
-      <c r="R32" s="11">
+      <c r="R32" s="7">
         <v>26</v>
       </c>
-      <c r="S32" s="11">
+      <c r="S32" s="7">
         <v>11</v>
       </c>
-      <c r="T32" s="11">
+      <c r="T32" s="7">
         <v>26</v>
       </c>
-      <c r="U32" s="11">
+      <c r="U32" s="7">
         <v>47</v>
       </c>
-      <c r="V32" s="11">
+      <c r="V32" s="7">
         <v>3</v>
       </c>
-      <c r="W32" s="11">
+      <c r="W32" s="7">
         <v>22</v>
       </c>
-      <c r="X32" s="11">
+      <c r="X32" s="7">
         <v>23</v>
       </c>
-      <c r="Y32" s="11">
+      <c r="Y32" s="7">
         <v>37</v>
       </c>
-      <c r="Z32" s="11">
+      <c r="Z32" s="7">
         <v>8</v>
       </c>
-      <c r="AA32" s="11">
+      <c r="AA32" s="7">
         <v>50</v>
       </c>
-      <c r="AB32" s="11">
+      <c r="AB32" s="7">
         <v>18</v>
       </c>
-      <c r="AC32" s="11">
+      <c r="AC32" s="7">
         <v>69</v>
       </c>
-      <c r="AD32" s="11">
+      <c r="AD32" s="7">
         <v>5</v>
       </c>
-      <c r="AE32" s="11">
+      <c r="AE32" s="7">
         <v>14</v>
       </c>
-      <c r="AF32" s="11">
+      <c r="AF32" s="7">
         <v>21</v>
       </c>
       <c r="AG32" s="4">
@@ -3805,104 +3624,104 @@
         <v>1284</v>
       </c>
       <c r="AK32" s="6" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>43910</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="7">
         <v>36</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="7">
         <v>220</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="7">
         <v>84</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="7">
         <v>95</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="7">
         <v>52</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="7">
         <v>15</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="7">
         <v>8</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="7">
         <v>145</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="7">
         <v>50</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="7">
         <v>17</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="7">
         <v>1</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="7">
         <v>3</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="7">
         <v>1</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="7">
         <v>99</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P33" s="7">
         <v>35</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q33" s="7">
         <v>55</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R33" s="7">
         <v>27</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S33" s="7">
         <v>15</v>
       </c>
-      <c r="T33" s="11">
+      <c r="T33" s="7">
         <v>44</v>
       </c>
-      <c r="U33" s="11">
+      <c r="U33" s="7">
         <v>17</v>
       </c>
-      <c r="V33" s="11">
+      <c r="V33" s="7">
         <v>5</v>
       </c>
-      <c r="W33" s="11">
+      <c r="W33" s="7">
         <v>10</v>
       </c>
-      <c r="X33" s="11">
+      <c r="X33" s="7">
         <v>22</v>
       </c>
-      <c r="Y33" s="11">
+      <c r="Y33" s="7">
         <v>9</v>
       </c>
-      <c r="Z33" s="11">
+      <c r="Z33" s="7">
         <v>20</v>
       </c>
-      <c r="AA33" s="11">
+      <c r="AA33" s="7">
         <v>48</v>
       </c>
-      <c r="AB33" s="11">
+      <c r="AB33" s="7">
         <v>8</v>
       </c>
-      <c r="AC33" s="11">
+      <c r="AC33" s="7">
         <v>49</v>
       </c>
-      <c r="AD33" s="11">
+      <c r="AD33" s="7">
         <v>18</v>
       </c>
-      <c r="AE33" s="11">
+      <c r="AE33" s="7">
         <v>12</v>
       </c>
-      <c r="AF33" s="11">
+      <c r="AF33" s="7">
         <v>17</v>
       </c>
       <c r="AG33" s="4">
@@ -3917,93 +3736,93 @@
       <c r="AJ33" s="4">
         <v>1433</v>
       </c>
-      <c r="AK33" s="11"/>
+      <c r="AK33" s="7"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>43911</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="7">
         <v>20</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="7">
         <v>232</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="7">
         <v>28</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="7">
         <v>55</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7">
         <v>6</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="7">
         <v>59</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="7">
         <v>101</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="7">
         <v>22</v>
       </c>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11">
+      <c r="K34" s="7"/>
+      <c r="L34" s="7">
         <v>12</v>
       </c>
-      <c r="M34" s="11">
-        <v>2</v>
-      </c>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11">
+      <c r="M34" s="7">
+        <v>2</v>
+      </c>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7">
         <v>57</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" s="7">
         <v>6</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q34" s="7">
         <v>72</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R34" s="7">
         <v>14</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S34" s="7">
         <v>7</v>
       </c>
-      <c r="T34" s="11">
+      <c r="T34" s="7">
         <v>35</v>
       </c>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11">
+      <c r="U34" s="7"/>
+      <c r="V34" s="7">
         <v>5</v>
       </c>
-      <c r="W34" s="11">
+      <c r="W34" s="7">
         <v>31</v>
       </c>
-      <c r="X34" s="11">
+      <c r="X34" s="7">
         <v>27</v>
       </c>
-      <c r="Y34" s="11">
+      <c r="Y34" s="7">
         <v>34</v>
       </c>
-      <c r="Z34" s="11">
+      <c r="Z34" s="7">
         <v>18</v>
       </c>
-      <c r="AA34" s="11">
+      <c r="AA34" s="7">
         <v>57</v>
       </c>
-      <c r="AB34" s="11">
+      <c r="AB34" s="7">
         <v>5</v>
       </c>
-      <c r="AC34" s="11">
+      <c r="AC34" s="7">
         <v>52</v>
       </c>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11">
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7">
         <v>8</v>
       </c>
-      <c r="AF34" s="11">
+      <c r="AF34" s="7">
         <v>1</v>
       </c>
       <c r="AG34" s="4">
@@ -4019,98 +3838,98 @@
         <v>1556</v>
       </c>
       <c r="AK34" s="6" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:37" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>43912</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="7">
         <v>17</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="7">
         <v>249</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="7">
         <v>36</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="7">
         <v>60</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11">
+      <c r="F35" s="7"/>
+      <c r="G35" s="7">
         <v>10</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="7">
         <v>29</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="7">
         <v>87</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="7">
         <v>26</v>
       </c>
-      <c r="K35" s="11">
-        <v>2</v>
-      </c>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11">
-        <v>2</v>
-      </c>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11">
+      <c r="K35" s="7">
+        <v>2</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7">
+        <v>2</v>
+      </c>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7">
         <v>38</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P35" s="7">
         <v>19</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q35" s="7">
         <v>57</v>
       </c>
-      <c r="R35" s="11">
+      <c r="R35" s="7">
         <v>28</v>
       </c>
-      <c r="S35" s="11">
+      <c r="S35" s="7">
         <v>16</v>
       </c>
-      <c r="T35" s="11">
+      <c r="T35" s="7">
         <v>28</v>
       </c>
-      <c r="U35" s="11">
+      <c r="U35" s="7">
         <v>36</v>
       </c>
-      <c r="V35" s="11">
+      <c r="V35" s="7">
         <v>7</v>
       </c>
-      <c r="W35" s="11">
+      <c r="W35" s="7">
         <v>22</v>
       </c>
-      <c r="X35" s="11">
+      <c r="X35" s="7">
         <v>19</v>
       </c>
-      <c r="Y35" s="11">
+      <c r="Y35" s="7">
         <v>33</v>
       </c>
-      <c r="Z35" s="11">
+      <c r="Z35" s="7">
         <v>17</v>
       </c>
-      <c r="AA35" s="11">
+      <c r="AA35" s="7">
         <v>42</v>
       </c>
-      <c r="AB35" s="11">
+      <c r="AB35" s="7">
         <v>15</v>
       </c>
-      <c r="AC35" s="11">
+      <c r="AC35" s="7">
         <v>84</v>
       </c>
-      <c r="AD35" s="11">
+      <c r="AD35" s="7">
         <v>15</v>
       </c>
-      <c r="AE35" s="11">
+      <c r="AE35" s="7">
         <v>8</v>
       </c>
-      <c r="AF35" s="11">
+      <c r="AF35" s="7">
         <v>26</v>
       </c>
       <c r="AG35" s="4">
@@ -4126,12 +3945,12 @@
         <v>1685</v>
       </c>
       <c r="AK35" s="6" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B41">
         <f>B$14/SUM($B$14:$AF$14)*$AG15</f>
@@ -4262,7 +4081,7 @@
         <v>522.99999999999989</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B42">
         <f t="shared" ref="B42:AF42" si="1">B$14/SUM($B$14:$AF$14)*$AG16</f>
         <v>64.896373056994818</v>
@@ -4431,111 +4250,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8718F20A-ECEC-400B-A794-B61741261610}">
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" t="s">
-        <v>94</v>
-      </c>
-      <c r="V1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>105</v>
       </c>
       <c r="AG1" t="s">
         <v>44</v>
@@ -4544,7 +4363,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <f>'200314_cases_raw'!A3</f>
         <v>43880</v>
@@ -4682,7 +4501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f>'200314_cases_raw'!A4</f>
         <v>43881</v>
@@ -4820,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f>'200314_cases_raw'!A5</f>
         <v>43882</v>
@@ -4958,7 +4777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f>'200314_cases_raw'!A6</f>
         <v>43883</v>
@@ -5096,7 +4915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f>'200314_cases_raw'!A7</f>
         <v>43884</v>
@@ -5234,7 +5053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f>'200314_cases_raw'!A8</f>
         <v>43885</v>
@@ -5372,7 +5191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f>'200314_cases_raw'!A9</f>
         <v>43886</v>
@@ -5510,7 +5329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f>'200314_cases_raw'!A10</f>
         <v>43887</v>
@@ -5648,7 +5467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f>'200314_cases_raw'!A11</f>
         <v>43888</v>
@@ -5786,7 +5605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f>'200314_cases_raw'!A12</f>
         <v>43889</v>
@@ -5924,7 +5743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f>'200314_cases_raw'!A13</f>
         <v>43890</v>
@@ -6062,7 +5881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f>'200314_cases_raw'!A14</f>
         <v>43891</v>
@@ -6200,7 +6019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f>'200314_cases_raw'!A15</f>
         <v>43892</v>
@@ -6338,7 +6157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f>'200314_cases_raw'!A16</f>
         <v>43893</v>
@@ -6476,7 +6295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f>'200314_cases_raw'!A17</f>
         <v>43894</v>
@@ -6614,7 +6433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f>'200314_cases_raw'!A18</f>
         <v>43895</v>
@@ -6752,7 +6571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f>'200314_cases_raw'!A19</f>
         <v>43896</v>
@@ -6890,7 +6709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f>'200314_cases_raw'!A20</f>
         <v>43897</v>
@@ -7028,7 +6847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <f>'200314_cases_raw'!A21</f>
         <v>43898</v>
@@ -7166,7 +6985,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <f>'200314_cases_raw'!A22</f>
         <v>43899</v>
@@ -7304,7 +7123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <f>'200314_cases_raw'!A23</f>
         <v>43900</v>
@@ -7442,7 +7261,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <f>'200314_cases_raw'!A24</f>
         <v>43901</v>
@@ -7580,7 +7399,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <f>'200314_cases_raw'!A25</f>
         <v>43902</v>
@@ -7718,7 +7537,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <f>'200314_cases_raw'!A26</f>
         <v>43903</v>
@@ -7856,7 +7675,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f>'200314_cases_raw'!A27</f>
         <v>43904</v>
@@ -7994,7 +7813,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <f>'200314_cases_raw'!A28</f>
         <v>43905</v>
@@ -8132,7 +7951,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <f>'200314_cases_raw'!A29</f>
         <v>43906</v>
@@ -8270,7 +8089,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <f>'200314_cases_raw'!A30</f>
         <v>43907</v>
@@ -8408,7 +8227,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <f>'200314_cases_raw'!A31</f>
         <v>43908</v>
@@ -8546,7 +8365,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <f>'200314_cases_raw'!A32</f>
         <v>43909</v>
@@ -8684,7 +8503,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <f>'200314_cases_raw'!A33</f>
         <v>43910</v>
@@ -8822,7 +8641,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <f>'200314_cases_raw'!A34</f>
         <v>43911</v>
@@ -8960,7 +8779,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <f>'200314_cases_raw'!A35</f>
         <v>43912</v>
@@ -9103,300 +8922,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378A4F6D-F2A2-467B-9C80-10B66E4C8CB6}">
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="9.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.20703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2">
-        <v>43881</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2">
-        <v>43881</v>
-      </c>
-      <c r="B3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
-        <v>43883</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
-        <v>43883</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
-        <v>43891</v>
-      </c>
-      <c r="B6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
-        <v>43893</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
-        <v>43895</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
-        <v>43896</v>
-      </c>
-      <c r="B9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
-        <v>43903</v>
-      </c>
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
-        <v>43903</v>
-      </c>
-      <c r="B11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
-        <v>43907</v>
-      </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
-        <v>43885</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
-        <v>43893</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" s="8"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" xr:uid="{4F77853A-9201-408D-907C-1A57C3042BAE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>